--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_0_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_0_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1886142.660354669</v>
+        <v>-1714344.493040496</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8055467.315111712</v>
+        <v>6514340.54110448</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340528.8729729602</v>
+        <v>340528.8729729601</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12987108.84251669</v>
+        <v>12987971.95704014</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.35480900483641</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
@@ -674,10 +674,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>16.8201079258493</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>191.0510908688377</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>14.81515106108805</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>16.8201079258493</v>
+        <v>119.2878878475954</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>16.8201079258493</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>16.8201079258493</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>14.81515106108805</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>16.8201079258493</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>16.8201079258493</v>
+        <v>25.42787862387922</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>181.1111604308385</v>
+        <v>264.5090568165047</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>231.3474543231449</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>231.3474543231449</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
         <v>107.8702810193205</v>
@@ -993,7 +993,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.2336832593675</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>28.10210002695916</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>112.1027016460444</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>231.3474543231449</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>231.3474543231449</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
@@ -1142,7 +1142,7 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>390.1527797502169</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1151,7 +1151,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>58.62238602652066</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>77.07805939625057</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>390.1527797502169</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>78.42675416844875</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
         <v>20.54110546596223</v>
@@ -1278,7 +1278,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -1291,10 +1291,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1351,13 +1351,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>127.5194583955959</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.79482613622859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>368.5981234669177</v>
+        <v>27.14551170745126</v>
       </c>
       <c r="C11" t="n">
-        <v>368.5025003789357</v>
+        <v>370.8092927078764</v>
       </c>
       <c r="D11" t="n">
-        <v>362.8984462069432</v>
+        <v>365.2052385358839</v>
       </c>
       <c r="E11" t="n">
-        <v>372.6759689273454</v>
+        <v>374.9827612562861</v>
       </c>
       <c r="F11" t="n">
-        <v>242.1393776497359</v>
+        <v>381.6060558538632</v>
       </c>
       <c r="G11" t="n">
-        <v>367.1201568651692</v>
+        <v>369.42694919411</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.585360326573</v>
       </c>
       <c r="I11" t="n">
-        <v>47.96740065517069</v>
+        <v>50.27419298411144</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.40742005291327</v>
+        <v>98.71421238185401</v>
       </c>
       <c r="T11" t="n">
-        <v>182.4635748116829</v>
+        <v>184.7703671406236</v>
       </c>
       <c r="U11" t="n">
-        <v>216.9690424221581</v>
+        <v>219.2758347510988</v>
       </c>
       <c r="V11" t="n">
-        <v>308.8183347159572</v>
+        <v>311.125127044898</v>
       </c>
       <c r="W11" t="n">
-        <v>342.4018534552562</v>
+        <v>344.708645784197</v>
       </c>
       <c r="X11" t="n">
-        <v>359.1161194518101</v>
+        <v>361.4229117807508</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.4064619204639</v>
+        <v>361.7132542494047</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.3018649291771</v>
+        <v>150.6086572581178</v>
       </c>
       <c r="C13" t="n">
-        <v>131.8615943129738</v>
+        <v>134.1683866419145</v>
       </c>
       <c r="D13" t="n">
-        <v>36.35576060592357</v>
+        <v>122.6856461583329</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.89914674042747</v>
+        <v>49.20593906936821</v>
       </c>
       <c r="S13" t="n">
-        <v>147.007006037962</v>
+        <v>21.82889223232762</v>
       </c>
       <c r="T13" t="n">
-        <v>199.632407232138</v>
+        <v>201.9391995610788</v>
       </c>
       <c r="U13" t="n">
-        <v>242.4493215784102</v>
+        <v>244.7561139073509</v>
       </c>
       <c r="V13" t="n">
-        <v>233.6260432089464</v>
+        <v>235.9328355378871</v>
       </c>
       <c r="W13" t="n">
-        <v>238.7581234452875</v>
+        <v>241.0649157742282</v>
       </c>
       <c r="X13" t="n">
-        <v>198.4395791179866</v>
+        <v>200.7463714469273</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.9674972241961</v>
+        <v>187.2742895531368</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.5981234669177</v>
+        <v>27.14551170745126</v>
       </c>
       <c r="C14" t="n">
-        <v>368.5025003789357</v>
+        <v>370.8092927078764</v>
       </c>
       <c r="D14" t="n">
-        <v>362.8984462069432</v>
+        <v>365.2052385358839</v>
       </c>
       <c r="E14" t="n">
-        <v>372.6759689273454</v>
+        <v>374.9827612562861</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>381.6060558538632</v>
       </c>
       <c r="G14" t="n">
-        <v>367.1201568651692</v>
+        <v>369.42694919411</v>
       </c>
       <c r="H14" t="n">
-        <v>242.1393776497353</v>
+        <v>272.585360326573</v>
       </c>
       <c r="I14" t="n">
-        <v>47.96740065517069</v>
+        <v>50.27419298411144</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.40742005291327</v>
+        <v>98.71421238185401</v>
       </c>
       <c r="T14" t="n">
-        <v>182.4635748116829</v>
+        <v>184.7703671406236</v>
       </c>
       <c r="U14" t="n">
-        <v>216.9690424221581</v>
+        <v>219.2758347510988</v>
       </c>
       <c r="V14" t="n">
-        <v>308.8183347159572</v>
+        <v>311.125127044898</v>
       </c>
       <c r="W14" t="n">
-        <v>342.4018534552562</v>
+        <v>344.708645784197</v>
       </c>
       <c r="X14" t="n">
-        <v>359.1161194518101</v>
+        <v>361.4229117807508</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.4064619204639</v>
+        <v>361.7132542494047</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.3018649291771</v>
+        <v>150.6086572581178</v>
       </c>
       <c r="C16" t="n">
-        <v>131.8615943129738</v>
+        <v>134.1683866419145</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>122.6856461583329</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>124.0876549083776</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>127.7707625585285</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>36.35576060592425</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.89914674042746</v>
+        <v>49.20593906936821</v>
       </c>
       <c r="S16" t="n">
-        <v>147.007006037962</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>199.632407232138</v>
+        <v>201.9391995610788</v>
       </c>
       <c r="U16" t="n">
-        <v>242.4493215784102</v>
+        <v>215.4729601197</v>
       </c>
       <c r="V16" t="n">
-        <v>233.6260432089464</v>
+        <v>235.9328355378871</v>
       </c>
       <c r="W16" t="n">
-        <v>238.7581234452875</v>
+        <v>241.0649157742282</v>
       </c>
       <c r="X16" t="n">
-        <v>198.4395791179866</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.9674972241961</v>
+        <v>187.2742895531368</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.4355598753965</v>
+        <v>347.9876221899645</v>
       </c>
       <c r="C17" t="n">
-        <v>341.3399367874144</v>
+        <v>347.8919991019825</v>
       </c>
       <c r="D17" t="n">
-        <v>335.7358826154219</v>
+        <v>342.28794492999</v>
       </c>
       <c r="E17" t="n">
-        <v>345.5134053358241</v>
+        <v>352.0654676503922</v>
       </c>
       <c r="F17" t="n">
-        <v>352.1366999334012</v>
+        <v>358.6887622479692</v>
       </c>
       <c r="G17" t="n">
-        <v>339.957593273648</v>
+        <v>346.509655588216</v>
       </c>
       <c r="H17" t="n">
-        <v>243.1160044061111</v>
+        <v>249.6680667206791</v>
       </c>
       <c r="I17" t="n">
-        <v>20.80483706364946</v>
+        <v>27.35689937821753</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.24485646139203</v>
+        <v>75.79691877596011</v>
       </c>
       <c r="T17" t="n">
-        <v>155.3010112201617</v>
+        <v>161.8530735347297</v>
       </c>
       <c r="U17" t="n">
-        <v>189.8064788306369</v>
+        <v>196.358541145205</v>
       </c>
       <c r="V17" t="n">
-        <v>281.655771124436</v>
+        <v>288.207833439004</v>
       </c>
       <c r="W17" t="n">
-        <v>315.239289863735</v>
+        <v>321.791352178303</v>
       </c>
       <c r="X17" t="n">
-        <v>331.9535558602889</v>
+        <v>338.5056181748569</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.2438983289427</v>
+        <v>338.7959606435107</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.1393013376558</v>
+        <v>127.6913636522239</v>
       </c>
       <c r="C19" t="n">
-        <v>104.6990307214525</v>
+        <v>111.2510930360206</v>
       </c>
       <c r="D19" t="n">
-        <v>93.21629023787096</v>
+        <v>99.76835255243904</v>
       </c>
       <c r="E19" t="n">
-        <v>94.61829898791561</v>
+        <v>101.1703613024837</v>
       </c>
       <c r="F19" t="n">
-        <v>98.30140663806654</v>
+        <v>104.8534689526346</v>
       </c>
       <c r="G19" t="n">
-        <v>100.8944791712639</v>
+        <v>107.446541485832</v>
       </c>
       <c r="H19" t="n">
-        <v>83.42797265014984</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>50.49917744426899</v>
+        <v>57.05123975883706</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.73658314890623</v>
+        <v>26.2886454634743</v>
       </c>
       <c r="S19" t="n">
-        <v>119.8444424464407</v>
+        <v>60.17013249657153</v>
       </c>
       <c r="T19" t="n">
-        <v>172.4698436406168</v>
+        <v>179.0219059551849</v>
       </c>
       <c r="U19" t="n">
-        <v>215.286757986889</v>
+        <v>221.838820301457</v>
       </c>
       <c r="V19" t="n">
-        <v>206.4634796174252</v>
+        <v>213.0155419319932</v>
       </c>
       <c r="W19" t="n">
-        <v>211.5955598537662</v>
+        <v>218.1476221683343</v>
       </c>
       <c r="X19" t="n">
-        <v>171.2770155264653</v>
+        <v>177.8290778410334</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.8049336326748</v>
+        <v>164.3569959472429</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>341.4355598753965</v>
+        <v>347.9876221899645</v>
       </c>
       <c r="C20" t="n">
-        <v>341.3399367874144</v>
+        <v>347.8919991019825</v>
       </c>
       <c r="D20" t="n">
-        <v>335.7358826154219</v>
+        <v>342.28794492999</v>
       </c>
       <c r="E20" t="n">
-        <v>345.5134053358241</v>
+        <v>352.0654676503922</v>
       </c>
       <c r="F20" t="n">
-        <v>352.1366999334012</v>
+        <v>358.6887622479692</v>
       </c>
       <c r="G20" t="n">
-        <v>339.957593273648</v>
+        <v>346.509655588217</v>
       </c>
       <c r="H20" t="n">
-        <v>243.1160044061111</v>
+        <v>249.6680667206791</v>
       </c>
       <c r="I20" t="n">
-        <v>20.80483706364946</v>
+        <v>27.35689937821753</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.24485646139203</v>
+        <v>75.79691877596011</v>
       </c>
       <c r="T20" t="n">
-        <v>155.3010112201617</v>
+        <v>161.8530735347297</v>
       </c>
       <c r="U20" t="n">
-        <v>189.8064788306369</v>
+        <v>196.358541145205</v>
       </c>
       <c r="V20" t="n">
-        <v>281.655771124436</v>
+        <v>288.207833439004</v>
       </c>
       <c r="W20" t="n">
-        <v>315.2392898637351</v>
+        <v>321.791352178303</v>
       </c>
       <c r="X20" t="n">
-        <v>331.9535558602889</v>
+        <v>338.5056181748569</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.2438983289427</v>
+        <v>338.7959606435107</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.1393013376558</v>
+        <v>127.6913636522239</v>
       </c>
       <c r="C22" t="n">
-        <v>104.6990307214525</v>
+        <v>111.2510930360206</v>
       </c>
       <c r="D22" t="n">
-        <v>93.21629023787096</v>
+        <v>99.76835255243904</v>
       </c>
       <c r="E22" t="n">
-        <v>94.61829898791561</v>
+        <v>101.1703613024837</v>
       </c>
       <c r="F22" t="n">
-        <v>98.30140663806654</v>
+        <v>104.8534689526346</v>
       </c>
       <c r="G22" t="n">
-        <v>100.8944791712639</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.4279726501498</v>
+        <v>89.98003496471787</v>
       </c>
       <c r="I22" t="n">
-        <v>50.49917744426899</v>
+        <v>34.58001947898867</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.73658314890623</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>119.8444424464407</v>
+        <v>126.3965047610088</v>
       </c>
       <c r="T22" t="n">
-        <v>172.4698436406168</v>
+        <v>179.0219059551849</v>
       </c>
       <c r="U22" t="n">
-        <v>215.286757986889</v>
+        <v>221.838820301457</v>
       </c>
       <c r="V22" t="n">
-        <v>206.4634796174252</v>
+        <v>213.0155419319932</v>
       </c>
       <c r="W22" t="n">
-        <v>211.5955598537662</v>
+        <v>218.1476221683343</v>
       </c>
       <c r="X22" t="n">
-        <v>171.2770155264653</v>
+        <v>177.8290778410334</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.8049336326748</v>
+        <v>164.3569959472429</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>341.4355598753965</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>341.3399367874144</v>
       </c>
       <c r="D23" t="n">
-        <v>335.7358826154219</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>345.5134053358241</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>352.1366999334012</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>339.957593273648</v>
+        <v>339.9575932736479</v>
       </c>
       <c r="H23" t="n">
-        <v>243.1160044061111</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364942</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.24485646139203</v>
+        <v>69.24485646139199</v>
       </c>
       <c r="T23" t="n">
-        <v>155.3010112201617</v>
+        <v>155.3010112201616</v>
       </c>
       <c r="U23" t="n">
-        <v>189.8064788306369</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>281.655771124436</v>
+        <v>291.9555011765031</v>
       </c>
       <c r="W23" t="n">
-        <v>315.239289863735</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>331.9535558602889</v>
+        <v>331.9535558602888</v>
       </c>
       <c r="Y23" t="n">
-        <v>332.2438983289427</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D25" t="n">
-        <v>93.21629023787096</v>
+        <v>93.21629023787092</v>
       </c>
       <c r="E25" t="n">
-        <v>94.61829898791561</v>
+        <v>94.61829898791557</v>
       </c>
       <c r="F25" t="n">
-        <v>98.30140663806654</v>
+        <v>98.3014066380665</v>
       </c>
       <c r="G25" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H25" t="n">
-        <v>83.4279726501498</v>
+        <v>83.42797265014975</v>
       </c>
       <c r="I25" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426894</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.73658314890623</v>
+        <v>19.73658314890619</v>
       </c>
       <c r="S25" t="n">
         <v>119.8444424464407</v>
@@ -2530,10 +2530,10 @@
         <v>172.4698436406168</v>
       </c>
       <c r="U25" t="n">
-        <v>215.286757986889</v>
+        <v>215.2867579868889</v>
       </c>
       <c r="V25" t="n">
-        <v>206.4634796174252</v>
+        <v>206.4634796174251</v>
       </c>
       <c r="W25" t="n">
         <v>211.5955598537662</v>
@@ -2713,7 +2713,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>33.12209635668104</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>212.994234377394</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>192.9893998987849</v>
@@ -2950,10 +2950,10 @@
         <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>30.02492562291784</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>33.12209635668128</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>155.0289087125508</v>
@@ -3013,7 +3013,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -3032,22 +3032,22 @@
         <v>341.3399367874144</v>
       </c>
       <c r="D32" t="n">
-        <v>335.7358826154219</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>345.5134053358241</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>352.1366999334012</v>
       </c>
       <c r="G32" t="n">
-        <v>339.957593273648</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>243.1160044061111</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>20.80483706364944</v>
+        <v>20.80483706364947</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.24485646139202</v>
+        <v>69.24485646139205</v>
       </c>
       <c r="T32" t="n">
-        <v>155.3010112201616</v>
+        <v>155.3010112201617</v>
       </c>
       <c r="U32" t="n">
-        <v>189.8064788306369</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>281.655771124436</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>315.239289863735</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>331.9535558602889</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>332.2438983289427</v>
+        <v>342.543628381009</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121.1393013376558</v>
+        <v>121.1393013376559</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6990307214525</v>
+        <v>104.6990307214526</v>
       </c>
       <c r="D34" t="n">
-        <v>93.21629023787095</v>
+        <v>93.21629023787098</v>
       </c>
       <c r="E34" t="n">
-        <v>94.61829898791559</v>
+        <v>94.61829898791562</v>
       </c>
       <c r="F34" t="n">
-        <v>98.30140663806652</v>
+        <v>98.30140663806655</v>
       </c>
       <c r="G34" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H34" t="n">
-        <v>83.42797265014978</v>
+        <v>83.42797265014981</v>
       </c>
       <c r="I34" t="n">
-        <v>50.49917744426898</v>
+        <v>50.49917744426899</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.73658314890622</v>
+        <v>19.73658314890625</v>
       </c>
       <c r="S34" t="n">
         <v>119.8444424464407</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>341.4355598753964</v>
+        <v>341.4355598753965</v>
       </c>
       <c r="C35" t="n">
         <v>341.3399367874144</v>
@@ -3275,16 +3275,16 @@
         <v>345.5134053358241</v>
       </c>
       <c r="F35" t="n">
-        <v>352.1366999334011</v>
+        <v>352.1366999334012</v>
       </c>
       <c r="G35" t="n">
-        <v>339.9575932736479</v>
+        <v>339.957593273648</v>
       </c>
       <c r="H35" t="n">
-        <v>243.116004406111</v>
+        <v>243.1160044061111</v>
       </c>
       <c r="I35" t="n">
-        <v>20.80483706364943</v>
+        <v>20.80483706364944</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.244856461392</v>
+        <v>69.24485646139202</v>
       </c>
       <c r="T35" t="n">
         <v>155.3010112201616</v>
       </c>
       <c r="U35" t="n">
-        <v>189.8064788306368</v>
+        <v>189.8064788306369</v>
       </c>
       <c r="V35" t="n">
         <v>281.655771124436</v>
       </c>
       <c r="W35" t="n">
-        <v>315.2392898637349</v>
+        <v>315.239289863735</v>
       </c>
       <c r="X35" t="n">
-        <v>331.9535558602888</v>
+        <v>331.9535558602889</v>
       </c>
       <c r="Y35" t="n">
-        <v>332.2438983289427</v>
+        <v>332.2438983289426</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D37" t="n">
-        <v>93.21629023787094</v>
+        <v>93.21629023787095</v>
       </c>
       <c r="E37" t="n">
-        <v>94.61829898791558</v>
+        <v>94.61829898791559</v>
       </c>
       <c r="F37" t="n">
-        <v>98.30140663806651</v>
+        <v>98.30140663806652</v>
       </c>
       <c r="G37" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H37" t="n">
-        <v>83.42797265014977</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I37" t="n">
-        <v>50.49917744426897</v>
+        <v>50.49917744426898</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.73658314890621</v>
+        <v>19.73658314890622</v>
       </c>
       <c r="S37" t="n">
         <v>119.8444424464407</v>
@@ -3478,10 +3478,10 @@
         <v>172.4698436406168</v>
       </c>
       <c r="U37" t="n">
-        <v>215.2867579868889</v>
+        <v>215.286757986889</v>
       </c>
       <c r="V37" t="n">
-        <v>206.4634796174251</v>
+        <v>206.4634796174252</v>
       </c>
       <c r="W37" t="n">
         <v>211.5955598537662</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>341.4355598753964</v>
+        <v>341.4355598753965</v>
       </c>
       <c r="C38" t="n">
         <v>341.3399367874144</v>
@@ -3512,16 +3512,16 @@
         <v>345.5134053358241</v>
       </c>
       <c r="F38" t="n">
-        <v>352.1366999334011</v>
+        <v>352.1366999334012</v>
       </c>
       <c r="G38" t="n">
-        <v>339.9575932736479</v>
+        <v>339.957593273648</v>
       </c>
       <c r="H38" t="n">
-        <v>243.116004406111</v>
+        <v>243.1160044061111</v>
       </c>
       <c r="I38" t="n">
-        <v>20.80483706364943</v>
+        <v>20.80483706364946</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.244856461392</v>
+        <v>69.24485646139203</v>
       </c>
       <c r="T38" t="n">
-        <v>155.3010112201616</v>
+        <v>155.3010112201617</v>
       </c>
       <c r="U38" t="n">
-        <v>189.8064788306368</v>
+        <v>189.8064788306369</v>
       </c>
       <c r="V38" t="n">
         <v>281.655771124436</v>
       </c>
       <c r="W38" t="n">
-        <v>315.2392898637349</v>
+        <v>315.239289863735</v>
       </c>
       <c r="X38" t="n">
-        <v>331.9535558602888</v>
+        <v>331.9535558602889</v>
       </c>
       <c r="Y38" t="n">
         <v>332.2438983289427</v>
@@ -3664,22 +3664,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D40" t="n">
-        <v>93.21629023787094</v>
+        <v>93.21629023787096</v>
       </c>
       <c r="E40" t="n">
-        <v>94.61829898791558</v>
+        <v>94.61829898791561</v>
       </c>
       <c r="F40" t="n">
-        <v>98.30140663806651</v>
+        <v>98.30140663806654</v>
       </c>
       <c r="G40" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H40" t="n">
-        <v>83.42797265014977</v>
+        <v>83.4279726501498</v>
       </c>
       <c r="I40" t="n">
-        <v>50.49917744426897</v>
+        <v>50.49917744426899</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.73658314890621</v>
+        <v>19.73658314890623</v>
       </c>
       <c r="S40" t="n">
         <v>119.8444424464407</v>
@@ -3715,10 +3715,10 @@
         <v>172.4698436406168</v>
       </c>
       <c r="U40" t="n">
-        <v>215.2867579868889</v>
+        <v>215.286757986889</v>
       </c>
       <c r="V40" t="n">
-        <v>206.4634796174251</v>
+        <v>206.4634796174252</v>
       </c>
       <c r="W40" t="n">
         <v>211.5955598537662</v>
@@ -3995,7 +3995,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I44" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364944</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>69.24485646139203</v>
+        <v>69.24485646139202</v>
       </c>
       <c r="T44" t="n">
-        <v>155.3010112201617</v>
+        <v>155.3010112201616</v>
       </c>
       <c r="U44" t="n">
         <v>189.8064788306369</v>
@@ -4138,22 +4138,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D46" t="n">
-        <v>93.21629023787096</v>
+        <v>93.21629023787095</v>
       </c>
       <c r="E46" t="n">
-        <v>94.61829898791561</v>
+        <v>94.61829898791559</v>
       </c>
       <c r="F46" t="n">
-        <v>98.30140663806654</v>
+        <v>98.30140663806652</v>
       </c>
       <c r="G46" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H46" t="n">
-        <v>83.4279726501498</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I46" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426898</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.73658314890623</v>
+        <v>19.73658314890622</v>
       </c>
       <c r="S46" t="n">
         <v>119.8444424464407</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.83102066230052</v>
+        <v>477.5107577130435</v>
       </c>
       <c r="C2" t="n">
-        <v>33.74683401597471</v>
+        <v>471.4265710667177</v>
       </c>
       <c r="D2" t="n">
-        <v>33.32330814943931</v>
+        <v>471.0030452001823</v>
       </c>
       <c r="E2" t="n">
-        <v>23.02349670674008</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F2" t="n">
-        <v>6.033488700831693</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
-        <v>1.345608634067944</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>1.345608634067944</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>1.345608634067944</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N2" t="n">
-        <v>1.345608634067944</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>17.99751548065875</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>33.97661801021559</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>50.62852485680639</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>67.2804317033972</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>50.29042369748881</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W2" t="n">
-        <v>50.29042369748881</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="X2" t="n">
-        <v>50.29042369748881</v>
+        <v>1080.712837245046</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.29042369748881</v>
+        <v>887.7319373775329</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.30041569158043</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>18.33561663997633</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>18.33561663997633</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>1.345608634067944</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>1.345608634067944</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>1.345608634067944</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>1.345608634067944</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M3" t="n">
-        <v>1.345608634067944</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="N3" t="n">
-        <v>1.345608634067944</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>17.32471116362478</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>33.97661801021559</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.62852485680639</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>67.2804317033972</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>67.2804317033972</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>50.29042369748881</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>33.30041569158043</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>33.30041569158043</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>33.30041569158043</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>33.30041569158043</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.31040768567204</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C4" t="n">
-        <v>1.345608634067944</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>1.345608634067944</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>1.345608634067944</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>1.345608634067944</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1.345608634067944</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>17.32471116362478</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>33.97661801021559</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>50.62852485680639</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.2804317033972</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>50.29042369748881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>50.29042369748881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>50.29042369748881</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>33.30041569158043</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>33.30041569158043</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="W4" t="n">
-        <v>16.31040768567204</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X4" t="n">
-        <v>16.31040768567204</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.31040768567204</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>229.6339630231411</v>
+        <v>741.1719557267563</v>
       </c>
       <c r="C5" t="n">
-        <v>223.5497763768153</v>
+        <v>331.0473650400264</v>
       </c>
       <c r="D5" t="n">
-        <v>223.1262505102799</v>
+        <v>330.623839173491</v>
       </c>
       <c r="E5" t="n">
-        <v>40.18568441852373</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>23.19567641261535</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>18.5077963458516</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>18.5077963458516</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>18.5077963458516</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>18.5077963458516</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>18.5077963458516</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>197.7312322632746</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M5" t="n">
-        <v>197.7312322632746</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>426.7652120431881</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>655.7991918231015</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>655.7991918231015</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>884.833171603015</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>925.3898172925798</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>925.3898172925798</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>703.1833332394385</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>703.1833332394385</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>469.4990359433325</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>235.8147386472265</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>235.8147386472265</v>
+        <v>1552.329808443156</v>
       </c>
       <c r="Y5" t="n">
-        <v>235.8147386472265</v>
+        <v>1151.393135391246</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>305.2050018132923</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>305.2050018132923</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>305.2050018132923</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>305.2050018132923</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>196.2451219957968</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>89.25500931013553</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>18.5077963458516</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>18.5077963458516</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>18.5077963458516</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>18.5077963458516</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>18.5077963458516</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>18.5077963458516</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N6" t="n">
-        <v>247.5417761257651</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O6" t="n">
-        <v>437.762338370123</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>666.7963181500364</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>895.8302979299499</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
-        <v>925.3898172925798</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>818.0830665255419</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>658.7412027125501</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>658.7412027125501</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>658.7412027125501</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>445.5080344488789</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
-        <v>445.5080344488789</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>445.5080344488789</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.89375596904267</v>
+        <v>646.4989700443776</v>
       </c>
       <c r="C7" t="n">
-        <v>46.89375596904267</v>
+        <v>475.4055976060941</v>
       </c>
       <c r="D7" t="n">
-        <v>46.89375596904267</v>
+        <v>315.9109529290042</v>
       </c>
       <c r="E7" t="n">
-        <v>18.5077963458516</v>
+        <v>155.0001377973236</v>
       </c>
       <c r="F7" t="n">
-        <v>18.5077963458516</v>
+        <v>155.0001377973236</v>
       </c>
       <c r="G7" t="n">
-        <v>18.5077963458516</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>18.5077963458516</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>18.5077963458516</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>18.5077963458516</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>18.5077963458516</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>196.1183876806296</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>196.1183876806296</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>425.1523674605431</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>654.1863472404566</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>859.861787490069</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>925.3898172925798</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>925.3898172925798</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>738.99804917249</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>505.313751876384</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>505.313751876384</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>505.313751876384</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W7" t="n">
-        <v>271.629454580278</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X7" t="n">
-        <v>271.629454580278</v>
+        <v>1058.934375049657</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.89375596904267</v>
+        <v>834.198676438422</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>844.0616033769616</v>
+        <v>1199.239803110925</v>
       </c>
       <c r="C8" t="n">
-        <v>837.9774167306357</v>
+        <v>789.1152124241949</v>
       </c>
       <c r="D8" t="n">
-        <v>837.5538908641003</v>
+        <v>788.6916865576594</v>
       </c>
       <c r="E8" t="n">
-        <v>827.254079421401</v>
+        <v>778.3918751149602</v>
       </c>
       <c r="F8" t="n">
-        <v>433.1603625019899</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G8" t="n">
-        <v>428.4724824352262</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>117.5639850629442</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>40.13971065786654</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N8" t="n">
-        <v>426.3909626105813</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>812.642214563296</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>1198.893466516011</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1501.396587660948</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1501.396587660948</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1244.336095920458</v>
+        <v>2010.397655827324</v>
       </c>
       <c r="V8" t="n">
-        <v>1244.336095920458</v>
+        <v>2010.397655827324</v>
       </c>
       <c r="W8" t="n">
-        <v>1244.336095920458</v>
+        <v>2010.397655827324</v>
       </c>
       <c r="X8" t="n">
-        <v>1244.336095920458</v>
+        <v>2010.397655827324</v>
       </c>
       <c r="Y8" t="n">
-        <v>850.242379001047</v>
+        <v>1609.460982775414</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>492.6577573086585</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>358.6626860576042</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>279.4437424531105</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>158.9509264454385</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>158.9509264454385</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>51.96081375977718</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M9" t="n">
-        <v>31.21222238001735</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N9" t="n">
-        <v>408.7046310488249</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O9" t="n">
-        <v>794.9558830015396</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>1181.207134954254</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S9" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T9" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1095.928434440403</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>882.216907433437</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>668.9837391697657</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
-        <v>492.6577573086585</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>492.6577573086585</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.21222238001735</v>
+        <v>655.949539715106</v>
       </c>
       <c r="C10" t="n">
-        <v>31.21222238001735</v>
+        <v>484.8561672768225</v>
       </c>
       <c r="D10" t="n">
-        <v>31.21222238001735</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="E10" t="n">
-        <v>31.21222238001735</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="F10" t="n">
-        <v>31.21222238001735</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G10" t="n">
-        <v>31.21222238001735</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
-        <v>31.21222238001735</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N10" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O10" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P10" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1475.338400676267</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1288.946632556178</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1049.39789353288</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U10" t="n">
-        <v>1049.39789353288</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="V10" t="n">
-        <v>775.5121484724016</v>
+        <v>972.4567798420755</v>
       </c>
       <c r="W10" t="n">
-        <v>496.4424839812759</v>
+        <v>843.6492461091503</v>
       </c>
       <c r="X10" t="n">
-        <v>258.0986218409593</v>
+        <v>843.6492461091503</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.9119287740617</v>
+        <v>843.6492461091503</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1861.458945876358</v>
+        <v>2291.349585812729</v>
       </c>
       <c r="C11" t="n">
-        <v>1489.234198018848</v>
+        <v>1916.794744693662</v>
       </c>
       <c r="D11" t="n">
-        <v>1122.670110941128</v>
+        <v>1547.900564354385</v>
       </c>
       <c r="E11" t="n">
-        <v>746.2297382872434</v>
+        <v>1169.130098438945</v>
       </c>
       <c r="F11" t="n">
-        <v>501.6445083380152</v>
+        <v>783.6694359602951</v>
       </c>
       <c r="G11" t="n">
-        <v>130.8160670600664</v>
+        <v>410.51090142079</v>
       </c>
       <c r="H11" t="n">
-        <v>130.8160670600664</v>
+        <v>135.1721536161707</v>
       </c>
       <c r="I11" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="J11" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="K11" t="n">
-        <v>341.6111460542108</v>
+        <v>442.9108107816094</v>
       </c>
       <c r="L11" t="n">
-        <v>1054.202545866449</v>
+        <v>1155.502210593847</v>
       </c>
       <c r="M11" t="n">
-        <v>1830.521136858203</v>
+        <v>1931.820801585601</v>
       </c>
       <c r="N11" t="n">
-        <v>2583.702153496821</v>
+        <v>2685.001818224219</v>
       </c>
       <c r="O11" t="n">
-        <v>3227.333009913926</v>
+        <v>3328.632674641324</v>
       </c>
       <c r="P11" t="n">
-        <v>3756.489707833077</v>
+        <v>3857.789372560476</v>
       </c>
       <c r="Q11" t="n">
-        <v>4077.650714628369</v>
+        <v>4178.950379355768</v>
       </c>
       <c r="R11" t="n">
-        <v>4118.207360317934</v>
+        <v>4219.507025045333</v>
       </c>
       <c r="S11" t="n">
-        <v>4020.826127941254</v>
+        <v>4119.795699407096</v>
       </c>
       <c r="T11" t="n">
-        <v>3836.519486717332</v>
+        <v>3933.158964921618</v>
       </c>
       <c r="U11" t="n">
-        <v>3617.358837806061</v>
+        <v>3711.668222748791</v>
       </c>
       <c r="V11" t="n">
-        <v>3305.421125971761</v>
+        <v>3397.400417652934</v>
       </c>
       <c r="W11" t="n">
-        <v>2959.560667936149</v>
+        <v>3049.209866355765</v>
       </c>
       <c r="X11" t="n">
-        <v>2596.81711293432</v>
+        <v>2684.136218092381</v>
       </c>
       <c r="Y11" t="n">
-        <v>2233.780282711629</v>
+        <v>2318.769294608135</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>761.1949890928931</v>
+        <v>763.2209823874409</v>
       </c>
       <c r="C12" t="n">
-        <v>627.1999178418388</v>
+        <v>629.2259111363867</v>
       </c>
       <c r="D12" t="n">
-        <v>510.3027600612312</v>
+        <v>512.3287533557791</v>
       </c>
       <c r="E12" t="n">
-        <v>389.8099440535592</v>
+        <v>391.8359373481071</v>
       </c>
       <c r="F12" t="n">
-        <v>280.8500642360638</v>
+        <v>282.8760575306117</v>
       </c>
       <c r="G12" t="n">
-        <v>173.8599515504025</v>
+        <v>175.8859448449504</v>
       </c>
       <c r="H12" t="n">
-        <v>103.1127385861185</v>
+        <v>105.1387318806665</v>
       </c>
       <c r="I12" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="J12" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="K12" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="L12" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="M12" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="N12" t="n">
-        <v>956.0222393179765</v>
+        <v>485.8123692703687</v>
       </c>
       <c r="O12" t="n">
-        <v>1187.743466521715</v>
+        <v>1189.769459816263</v>
       </c>
       <c r="P12" t="n">
-        <v>1749.449359010245</v>
+        <v>1751.475352304793</v>
       </c>
       <c r="Q12" t="n">
-        <v>2099.293823694229</v>
+        <v>2101.319816988776</v>
       </c>
       <c r="R12" t="n">
-        <v>2128.853343056859</v>
+        <v>2130.879336351406</v>
       </c>
       <c r="S12" t="n">
-        <v>2020.863333171168</v>
+        <v>2022.889326465715</v>
       </c>
       <c r="T12" t="n">
-        <v>1861.521469358176</v>
+        <v>1863.547462652724</v>
       </c>
       <c r="U12" t="n">
-        <v>1664.170658496394</v>
+        <v>1666.196651790942</v>
       </c>
       <c r="V12" t="n">
-        <v>1450.459131489428</v>
+        <v>1452.485124783976</v>
       </c>
       <c r="W12" t="n">
-        <v>1237.225963225757</v>
+        <v>1239.251956520305</v>
       </c>
       <c r="X12" t="n">
-        <v>1060.89998136465</v>
+        <v>1062.925974659197</v>
       </c>
       <c r="Y12" t="n">
-        <v>901.4980217284798</v>
+        <v>903.5240150230276</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>252.2806673264569</v>
+        <v>343.8386584809546</v>
       </c>
       <c r="C13" t="n">
-        <v>119.0871377173926</v>
+        <v>208.3150356103339</v>
       </c>
       <c r="D13" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="E13" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="F13" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="G13" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="H13" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="I13" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="J13" t="n">
-        <v>133.5923325684867</v>
+        <v>133.3346014573834</v>
       </c>
       <c r="K13" t="n">
-        <v>325.2902962476422</v>
+        <v>322.7488407308877</v>
       </c>
       <c r="L13" t="n">
-        <v>622.3330324846204</v>
+        <v>617.5078525622145</v>
       </c>
       <c r="M13" t="n">
-        <v>948.7427248820313</v>
+        <v>941.6338205539739</v>
       </c>
       <c r="N13" t="n">
-        <v>1266.727143233199</v>
+        <v>1257.334514499491</v>
       </c>
       <c r="O13" t="n">
-        <v>1563.433389516591</v>
+        <v>1551.757036377231</v>
       </c>
       <c r="P13" t="n">
-        <v>1806.254465723121</v>
+        <v>1792.29438817811</v>
       </c>
       <c r="Q13" t="n">
-        <v>1908.928131482549</v>
+        <v>1892.684329531887</v>
       </c>
       <c r="R13" t="n">
-        <v>1861.555255987168</v>
+        <v>1842.981360774949</v>
       </c>
       <c r="S13" t="n">
-        <v>1713.063330696297</v>
+        <v>1820.931974681689</v>
       </c>
       <c r="T13" t="n">
-        <v>1511.414434502218</v>
+        <v>1616.952985226054</v>
       </c>
       <c r="U13" t="n">
-        <v>1266.516129877562</v>
+        <v>1369.724587339841</v>
       </c>
       <c r="V13" t="n">
-        <v>1030.530227646303</v>
+        <v>1131.408591847025</v>
       </c>
       <c r="W13" t="n">
-        <v>789.360405984396</v>
+        <v>887.9086769235626</v>
       </c>
       <c r="X13" t="n">
-        <v>588.9163866732985</v>
+        <v>685.1345643509087</v>
       </c>
       <c r="Y13" t="n">
-        <v>402.0805308912823</v>
+        <v>495.9686153073362</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1861.458945876358</v>
+        <v>2291.349585812729</v>
       </c>
       <c r="C14" t="n">
-        <v>1489.234198018848</v>
+        <v>1916.794744693662</v>
       </c>
       <c r="D14" t="n">
-        <v>1122.670110941127</v>
+        <v>1547.900564354385</v>
       </c>
       <c r="E14" t="n">
-        <v>746.2297382872428</v>
+        <v>1169.130098438945</v>
       </c>
       <c r="F14" t="n">
-        <v>746.2297382872428</v>
+        <v>783.669435960295</v>
       </c>
       <c r="G14" t="n">
-        <v>375.401297009294</v>
+        <v>410.51090142079</v>
       </c>
       <c r="H14" t="n">
-        <v>130.8160670600664</v>
+        <v>135.1721536161707</v>
       </c>
       <c r="I14" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="J14" t="n">
-        <v>82.36414720635868</v>
+        <v>338.575611968661</v>
       </c>
       <c r="K14" t="n">
-        <v>341.6111460542108</v>
+        <v>876.7351130777005</v>
       </c>
       <c r="L14" t="n">
-        <v>1054.202545866449</v>
+        <v>1589.326512889938</v>
       </c>
       <c r="M14" t="n">
-        <v>1830.521136858203</v>
+        <v>2365.645103881692</v>
       </c>
       <c r="N14" t="n">
-        <v>2583.702153496821</v>
+        <v>3118.82612052031</v>
       </c>
       <c r="O14" t="n">
-        <v>3227.333009913926</v>
+        <v>3762.456976937415</v>
       </c>
       <c r="P14" t="n">
-        <v>3756.489707833077</v>
+        <v>3857.789372560476</v>
       </c>
       <c r="Q14" t="n">
-        <v>4077.650714628369</v>
+        <v>4178.950379355768</v>
       </c>
       <c r="R14" t="n">
-        <v>4118.207360317934</v>
+        <v>4219.507025045333</v>
       </c>
       <c r="S14" t="n">
-        <v>4020.826127941254</v>
+        <v>4119.795699407096</v>
       </c>
       <c r="T14" t="n">
-        <v>3836.519486717332</v>
+        <v>3933.158964921618</v>
       </c>
       <c r="U14" t="n">
-        <v>3617.358837806061</v>
+        <v>3711.668222748791</v>
       </c>
       <c r="V14" t="n">
-        <v>3305.42112597176</v>
+        <v>3397.400417652934</v>
       </c>
       <c r="W14" t="n">
-        <v>2959.560667936148</v>
+        <v>3049.209866355766</v>
       </c>
       <c r="X14" t="n">
-        <v>2596.81711293432</v>
+        <v>2684.136218092381</v>
       </c>
       <c r="Y14" t="n">
-        <v>2233.780282711629</v>
+        <v>2318.769294608134</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>761.1949890928931</v>
+        <v>763.2209823874409</v>
       </c>
       <c r="C15" t="n">
-        <v>627.1999178418388</v>
+        <v>629.2259111363867</v>
       </c>
       <c r="D15" t="n">
-        <v>510.3027600612312</v>
+        <v>512.3287533557791</v>
       </c>
       <c r="E15" t="n">
-        <v>389.8099440535592</v>
+        <v>391.8359373481071</v>
       </c>
       <c r="F15" t="n">
-        <v>280.8500642360638</v>
+        <v>282.8760575306117</v>
       </c>
       <c r="G15" t="n">
-        <v>173.8599515504025</v>
+        <v>175.8859448449504</v>
       </c>
       <c r="H15" t="n">
-        <v>103.1127385861185</v>
+        <v>105.1387318806665</v>
       </c>
       <c r="I15" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="J15" t="n">
-        <v>82.36414720635868</v>
+        <v>277.2029980635399</v>
       </c>
       <c r="K15" t="n">
-        <v>82.36414720635868</v>
+        <v>277.2029980635399</v>
       </c>
       <c r="L15" t="n">
-        <v>483.7863759758209</v>
+        <v>277.2029980635399</v>
       </c>
       <c r="M15" t="n">
-        <v>483.7863759758209</v>
+        <v>1120.180078758106</v>
       </c>
       <c r="N15" t="n">
-        <v>483.7863759758209</v>
+        <v>1120.180078758106</v>
       </c>
       <c r="O15" t="n">
-        <v>1187.743466521715</v>
+        <v>1569.173443862876</v>
       </c>
       <c r="P15" t="n">
-        <v>1749.449359010245</v>
+        <v>2130.879336351406</v>
       </c>
       <c r="Q15" t="n">
-        <v>2099.293823694229</v>
+        <v>2130.879336351406</v>
       </c>
       <c r="R15" t="n">
-        <v>2128.853343056859</v>
+        <v>2130.879336351406</v>
       </c>
       <c r="S15" t="n">
-        <v>2020.863333171168</v>
+        <v>2022.889326465715</v>
       </c>
       <c r="T15" t="n">
-        <v>1861.521469358176</v>
+        <v>1863.547462652724</v>
       </c>
       <c r="U15" t="n">
-        <v>1664.170658496394</v>
+        <v>1666.196651790942</v>
       </c>
       <c r="V15" t="n">
-        <v>1450.459131489428</v>
+        <v>1452.485124783976</v>
       </c>
       <c r="W15" t="n">
-        <v>1237.225963225757</v>
+        <v>1239.251956520305</v>
       </c>
       <c r="X15" t="n">
-        <v>1060.89998136465</v>
+        <v>1062.925974659197</v>
       </c>
       <c r="Y15" t="n">
-        <v>901.4980217284798</v>
+        <v>903.5240150230276</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>252.2806673264576</v>
+        <v>598.2411003667182</v>
       </c>
       <c r="C16" t="n">
-        <v>119.0871377173933</v>
+        <v>462.7174774960976</v>
       </c>
       <c r="D16" t="n">
-        <v>119.0871377173933</v>
+        <v>338.7925823866703</v>
       </c>
       <c r="E16" t="n">
-        <v>119.0871377173933</v>
+        <v>213.4515168226526</v>
       </c>
       <c r="F16" t="n">
-        <v>119.0871377173933</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0871377173933</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="H16" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="I16" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="J16" t="n">
-        <v>133.5923325684868</v>
+        <v>133.3346014573835</v>
       </c>
       <c r="K16" t="n">
-        <v>325.2902962476424</v>
+        <v>322.7488407308879</v>
       </c>
       <c r="L16" t="n">
-        <v>622.3330324846206</v>
+        <v>617.5078525622146</v>
       </c>
       <c r="M16" t="n">
-        <v>948.7427248820316</v>
+        <v>941.633820553974</v>
       </c>
       <c r="N16" t="n">
-        <v>1266.7271432332</v>
+        <v>1257.334514499491</v>
       </c>
       <c r="O16" t="n">
-        <v>1563.433389516591</v>
+        <v>1551.757036377231</v>
       </c>
       <c r="P16" t="n">
-        <v>1806.254465723121</v>
+        <v>1792.29438817811</v>
       </c>
       <c r="Q16" t="n">
-        <v>1908.92813148255</v>
+        <v>1892.684329531887</v>
       </c>
       <c r="R16" t="n">
-        <v>1861.555255987168</v>
+        <v>1842.98136077495</v>
       </c>
       <c r="S16" t="n">
-        <v>1713.063330696298</v>
+        <v>1842.98136077495</v>
       </c>
       <c r="T16" t="n">
-        <v>1511.414434502219</v>
+        <v>1639.002371319314</v>
       </c>
       <c r="U16" t="n">
-        <v>1266.516129877562</v>
+        <v>1421.352916652951</v>
       </c>
       <c r="V16" t="n">
-        <v>1030.530227646303</v>
+        <v>1183.036921160135</v>
       </c>
       <c r="W16" t="n">
-        <v>789.3604059843967</v>
+        <v>939.5370062366724</v>
       </c>
       <c r="X16" t="n">
-        <v>588.9163866732991</v>
+        <v>939.5370062366724</v>
       </c>
       <c r="Y16" t="n">
-        <v>402.0805308912829</v>
+        <v>750.3710571930999</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2080.954409242187</v>
+        <v>2129.308115872065</v>
       </c>
       <c r="C17" t="n">
-        <v>1736.166594305405</v>
+        <v>1777.902056173093</v>
       </c>
       <c r="D17" t="n">
-        <v>1397.039440148413</v>
+        <v>1432.156657253911</v>
       </c>
       <c r="E17" t="n">
-        <v>1048.036000415258</v>
+        <v>1076.534972758566</v>
       </c>
       <c r="F17" t="n">
-        <v>692.3423641188928</v>
+        <v>714.2230917000106</v>
       </c>
       <c r="G17" t="n">
-        <v>348.9508557616725</v>
+        <v>364.2133385806003</v>
       </c>
       <c r="H17" t="n">
-        <v>103.3791341393379</v>
+        <v>112.0233721960759</v>
       </c>
       <c r="I17" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="J17" t="n">
-        <v>82.36414720635868</v>
+        <v>338.575611968661</v>
       </c>
       <c r="K17" t="n">
-        <v>341.6111460542108</v>
+        <v>876.7351130777005</v>
       </c>
       <c r="L17" t="n">
-        <v>1054.202545866449</v>
+        <v>1589.326512889938</v>
       </c>
       <c r="M17" t="n">
-        <v>1830.521136858203</v>
+        <v>1931.820801585601</v>
       </c>
       <c r="N17" t="n">
-        <v>2583.702153496821</v>
+        <v>2685.001818224219</v>
       </c>
       <c r="O17" t="n">
-        <v>3227.333009913926</v>
+        <v>3328.632674641324</v>
       </c>
       <c r="P17" t="n">
-        <v>3756.489707833077</v>
+        <v>3857.789372560476</v>
       </c>
       <c r="Q17" t="n">
-        <v>4077.650714628369</v>
+        <v>4178.950379355768</v>
       </c>
       <c r="R17" t="n">
-        <v>4118.207360317934</v>
+        <v>4219.507025045333</v>
       </c>
       <c r="S17" t="n">
-        <v>4048.263060861982</v>
+        <v>4142.944480827191</v>
       </c>
       <c r="T17" t="n">
-        <v>3891.393352558789</v>
+        <v>3979.456527761807</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.669636568246</v>
+        <v>3781.114567009075</v>
       </c>
       <c r="V17" t="n">
-        <v>3415.168857654675</v>
+        <v>3489.995543333313</v>
       </c>
       <c r="W17" t="n">
-        <v>3096.745332539791</v>
+        <v>3164.953773456239</v>
       </c>
       <c r="X17" t="n">
-        <v>2761.438710458691</v>
+        <v>2823.028906612949</v>
       </c>
       <c r="Y17" t="n">
-        <v>2425.838813156729</v>
+        <v>2480.810764548797</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>761.1949890928931</v>
+        <v>763.2209823874409</v>
       </c>
       <c r="C18" t="n">
-        <v>627.1999178418388</v>
+        <v>629.2259111363867</v>
       </c>
       <c r="D18" t="n">
-        <v>510.3027600612312</v>
+        <v>512.3287533557791</v>
       </c>
       <c r="E18" t="n">
-        <v>389.8099440535592</v>
+        <v>391.8359373481071</v>
       </c>
       <c r="F18" t="n">
-        <v>280.8500642360638</v>
+        <v>282.8760575306117</v>
       </c>
       <c r="G18" t="n">
-        <v>173.8599515504025</v>
+        <v>175.8859448449504</v>
       </c>
       <c r="H18" t="n">
-        <v>103.1127385861185</v>
+        <v>105.1387318806665</v>
       </c>
       <c r="I18" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="J18" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="K18" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="L18" t="n">
-        <v>82.36414720635868</v>
+        <v>745.4783124201949</v>
       </c>
       <c r="M18" t="n">
-        <v>82.36414720635868</v>
+        <v>1047.518261758899</v>
       </c>
       <c r="N18" t="n">
-        <v>483.7863759758209</v>
+        <v>1047.518261758899</v>
       </c>
       <c r="O18" t="n">
-        <v>1187.743466521715</v>
+        <v>1751.475352304793</v>
       </c>
       <c r="P18" t="n">
-        <v>1749.449359010245</v>
+        <v>1751.475352304793</v>
       </c>
       <c r="Q18" t="n">
-        <v>2099.293823694229</v>
+        <v>2101.319816988776</v>
       </c>
       <c r="R18" t="n">
-        <v>2128.853343056859</v>
+        <v>2130.879336351406</v>
       </c>
       <c r="S18" t="n">
-        <v>2020.863333171168</v>
+        <v>2022.889326465715</v>
       </c>
       <c r="T18" t="n">
-        <v>1861.521469358176</v>
+        <v>1863.547462652724</v>
       </c>
       <c r="U18" t="n">
-        <v>1664.170658496394</v>
+        <v>1666.196651790942</v>
       </c>
       <c r="V18" t="n">
-        <v>1450.459131489428</v>
+        <v>1452.485124783976</v>
       </c>
       <c r="W18" t="n">
-        <v>1237.225963225757</v>
+        <v>1239.251956520305</v>
       </c>
       <c r="X18" t="n">
-        <v>1060.89998136465</v>
+        <v>1062.925974659197</v>
       </c>
       <c r="Y18" t="n">
-        <v>901.4980217284798</v>
+        <v>903.5240150230276</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>714.3405672578619</v>
+        <v>671.8053496809541</v>
       </c>
       <c r="C19" t="n">
-        <v>608.5839705695262</v>
+        <v>559.4305082304282</v>
       </c>
       <c r="D19" t="n">
-        <v>514.4261016423839</v>
+        <v>458.6543945410959</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8520622606509</v>
+        <v>356.462110397173</v>
       </c>
       <c r="F19" t="n">
-        <v>319.5577121211898</v>
+        <v>250.5495154955218</v>
       </c>
       <c r="G19" t="n">
-        <v>217.6440967966807</v>
+        <v>142.0176554088229</v>
       </c>
       <c r="H19" t="n">
-        <v>133.3734173520849</v>
+        <v>142.0176554088229</v>
       </c>
       <c r="I19" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="J19" t="n">
-        <v>160.4832705240926</v>
+        <v>156.0227221272184</v>
       </c>
       <c r="K19" t="n">
-        <v>379.0721721588543</v>
+        <v>368.1250820705576</v>
       </c>
       <c r="L19" t="n">
-        <v>703.0058463514385</v>
+        <v>685.5722145717193</v>
       </c>
       <c r="M19" t="n">
-        <v>1056.306476704455</v>
+        <v>1032.386303233314</v>
       </c>
       <c r="N19" t="n">
-        <v>1401.181833011229</v>
+        <v>1370.775117848665</v>
       </c>
       <c r="O19" t="n">
-        <v>1724.779017250227</v>
+        <v>1687.885760396241</v>
       </c>
       <c r="P19" t="n">
-        <v>1994.491031412363</v>
+        <v>1951.111232866954</v>
       </c>
       <c r="Q19" t="n">
-        <v>2124.055635127398</v>
+        <v>2074.189294890566</v>
       </c>
       <c r="R19" t="n">
-        <v>2104.119692552746</v>
+        <v>2047.635107553723</v>
       </c>
       <c r="S19" t="n">
-        <v>1983.064700182603</v>
+        <v>1986.857195941024</v>
       </c>
       <c r="T19" t="n">
-        <v>1808.852736909253</v>
+        <v>1806.026987905484</v>
       </c>
       <c r="U19" t="n">
-        <v>1591.391365205324</v>
+        <v>1581.947371439366</v>
       </c>
       <c r="V19" t="n">
-        <v>1382.842395894794</v>
+        <v>1366.780157366645</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.109507153616</v>
+        <v>1146.429023863278</v>
       </c>
       <c r="X19" t="n">
-        <v>996.1024207632465</v>
+        <v>966.8036927107185</v>
       </c>
       <c r="Y19" t="n">
-        <v>836.7034979019588</v>
+        <v>800.7865250872408</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2080.954409242187</v>
+        <v>2129.308115872066</v>
       </c>
       <c r="C20" t="n">
-        <v>1736.166594305405</v>
+        <v>1777.902056173094</v>
       </c>
       <c r="D20" t="n">
-        <v>1397.039440148413</v>
+        <v>1432.156657253912</v>
       </c>
       <c r="E20" t="n">
-        <v>1048.036000415258</v>
+        <v>1076.534972758566</v>
       </c>
       <c r="F20" t="n">
-        <v>692.3423641188926</v>
+        <v>714.2230917000114</v>
       </c>
       <c r="G20" t="n">
-        <v>348.9508557616724</v>
+        <v>364.2133385806003</v>
       </c>
       <c r="H20" t="n">
-        <v>103.3791341393379</v>
+        <v>112.0233721960759</v>
       </c>
       <c r="I20" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="J20" t="n">
-        <v>82.36414720635868</v>
+        <v>338.575611968661</v>
       </c>
       <c r="K20" t="n">
-        <v>341.6111460542108</v>
+        <v>876.7351130777005</v>
       </c>
       <c r="L20" t="n">
-        <v>1054.202545866449</v>
+        <v>1589.326512889938</v>
       </c>
       <c r="M20" t="n">
-        <v>1830.521136858203</v>
+        <v>2365.645103881692</v>
       </c>
       <c r="N20" t="n">
-        <v>2583.702153496821</v>
+        <v>3118.82612052031</v>
       </c>
       <c r="O20" t="n">
-        <v>3227.333009913926</v>
+        <v>3762.456976937415</v>
       </c>
       <c r="P20" t="n">
-        <v>3756.489707833077</v>
+        <v>4178.950379355768</v>
       </c>
       <c r="Q20" t="n">
-        <v>4077.650714628369</v>
+        <v>4178.950379355768</v>
       </c>
       <c r="R20" t="n">
-        <v>4118.207360317934</v>
+        <v>4219.507025045333</v>
       </c>
       <c r="S20" t="n">
-        <v>4048.263060861982</v>
+        <v>4142.944480827191</v>
       </c>
       <c r="T20" t="n">
-        <v>3891.393352558789</v>
+        <v>3979.456527761808</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.669636568247</v>
+        <v>3781.114567009075</v>
       </c>
       <c r="V20" t="n">
-        <v>3415.168857654675</v>
+        <v>3489.995543333314</v>
       </c>
       <c r="W20" t="n">
-        <v>3096.745332539791</v>
+        <v>3164.95377345624</v>
       </c>
       <c r="X20" t="n">
-        <v>2761.438710458692</v>
+        <v>2823.02890661295</v>
       </c>
       <c r="Y20" t="n">
-        <v>2425.838813156729</v>
+        <v>2480.810764548798</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>761.1949890928931</v>
+        <v>763.2209823874409</v>
       </c>
       <c r="C21" t="n">
-        <v>627.1999178418388</v>
+        <v>629.2259111363867</v>
       </c>
       <c r="D21" t="n">
-        <v>510.3027600612312</v>
+        <v>512.3287533557791</v>
       </c>
       <c r="E21" t="n">
-        <v>389.8099440535592</v>
+        <v>391.8359373481071</v>
       </c>
       <c r="F21" t="n">
-        <v>280.8500642360638</v>
+        <v>282.8760575306117</v>
       </c>
       <c r="G21" t="n">
-        <v>173.8599515504025</v>
+        <v>175.8859448449504</v>
       </c>
       <c r="H21" t="n">
-        <v>103.1127385861185</v>
+        <v>105.1387318806665</v>
       </c>
       <c r="I21" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="J21" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="K21" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="L21" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="M21" t="n">
-        <v>483.7863759758209</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="N21" t="n">
-        <v>483.7863759758209</v>
+        <v>485.8123692703687</v>
       </c>
       <c r="O21" t="n">
-        <v>1187.743466521715</v>
+        <v>1189.769459816263</v>
       </c>
       <c r="P21" t="n">
-        <v>1749.449359010245</v>
+        <v>1751.475352304793</v>
       </c>
       <c r="Q21" t="n">
-        <v>2099.293823694229</v>
+        <v>2101.319816988776</v>
       </c>
       <c r="R21" t="n">
-        <v>2128.853343056859</v>
+        <v>2130.879336351406</v>
       </c>
       <c r="S21" t="n">
-        <v>2020.863333171168</v>
+        <v>2022.889326465715</v>
       </c>
       <c r="T21" t="n">
-        <v>1861.521469358176</v>
+        <v>1863.547462652724</v>
       </c>
       <c r="U21" t="n">
-        <v>1664.170658496394</v>
+        <v>1666.196651790942</v>
       </c>
       <c r="V21" t="n">
-        <v>1450.459131489428</v>
+        <v>1452.485124783976</v>
       </c>
       <c r="W21" t="n">
-        <v>1237.225963225757</v>
+        <v>1239.251956520305</v>
       </c>
       <c r="X21" t="n">
-        <v>1060.89998136465</v>
+        <v>1062.925974659197</v>
       </c>
       <c r="Y21" t="n">
-        <v>901.4980217284798</v>
+        <v>903.5240150230276</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.3405672578622</v>
+        <v>631.4642114981633</v>
       </c>
       <c r="C22" t="n">
-        <v>608.5839705695263</v>
+        <v>519.0893700476374</v>
       </c>
       <c r="D22" t="n">
-        <v>514.4261016423839</v>
+        <v>418.3132563583051</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8520622606509</v>
+        <v>316.1209722143824</v>
       </c>
       <c r="F22" t="n">
-        <v>319.5577121211897</v>
+        <v>210.2083773127314</v>
       </c>
       <c r="G22" t="n">
-        <v>217.6440967966807</v>
+        <v>210.2083773127314</v>
       </c>
       <c r="H22" t="n">
-        <v>133.3734173520849</v>
+        <v>119.3194531059457</v>
       </c>
       <c r="I22" t="n">
-        <v>82.36414720635868</v>
+        <v>84.39014050090665</v>
       </c>
       <c r="J22" t="n">
-        <v>160.4832705240929</v>
+        <v>156.0227221272184</v>
       </c>
       <c r="K22" t="n">
-        <v>379.0721721588545</v>
+        <v>368.1250820705576</v>
       </c>
       <c r="L22" t="n">
-        <v>703.0058463514388</v>
+        <v>685.5722145717193</v>
       </c>
       <c r="M22" t="n">
-        <v>1056.306476704456</v>
+        <v>1032.386303233314</v>
       </c>
       <c r="N22" t="n">
-        <v>1401.18183301123</v>
+        <v>1370.775117848665</v>
       </c>
       <c r="O22" t="n">
-        <v>1724.779017250227</v>
+        <v>1687.885760396241</v>
       </c>
       <c r="P22" t="n">
-        <v>1994.491031412364</v>
+        <v>1951.111232866954</v>
       </c>
       <c r="Q22" t="n">
-        <v>2124.055635127398</v>
+        <v>2074.189294890566</v>
       </c>
       <c r="R22" t="n">
-        <v>2104.119692552745</v>
+        <v>2074.189294890566</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.064700182603</v>
+        <v>1946.516057758234</v>
       </c>
       <c r="T22" t="n">
-        <v>1808.852736909253</v>
+        <v>1765.685849722694</v>
       </c>
       <c r="U22" t="n">
-        <v>1591.391365205324</v>
+        <v>1541.606233256575</v>
       </c>
       <c r="V22" t="n">
-        <v>1382.842395894794</v>
+        <v>1326.439019183855</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.109507153616</v>
+        <v>1106.087885680487</v>
       </c>
       <c r="X22" t="n">
-        <v>996.1024207632466</v>
+        <v>926.4625545279278</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.7034979019589</v>
+        <v>760.4453869044501</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2080.954409242187</v>
+        <v>2353.181062726242</v>
       </c>
       <c r="C23" t="n">
-        <v>1736.166594305405</v>
+        <v>2008.393247789459</v>
       </c>
       <c r="D23" t="n">
-        <v>1397.039440148413</v>
+        <v>1603.92931788252</v>
       </c>
       <c r="E23" t="n">
-        <v>1048.036000415257</v>
+        <v>1189.589102399417</v>
       </c>
       <c r="F23" t="n">
-        <v>692.3423641188925</v>
+        <v>768.5586903531041</v>
       </c>
       <c r="G23" t="n">
-        <v>348.9508557616723</v>
+        <v>425.167181995884</v>
       </c>
       <c r="H23" t="n">
-        <v>103.3791341393379</v>
+        <v>114.258684623602</v>
       </c>
       <c r="I23" t="n">
-        <v>82.36414720635867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>82.36414720635867</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>341.6111460542099</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
-        <v>1054.202545866448</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M23" t="n">
-        <v>1830.521136858202</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N23" t="n">
-        <v>2583.70215349682</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3227.333009913925</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
-        <v>3756.489707833076</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q23" t="n">
-        <v>4077.650714628368</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R23" t="n">
-        <v>4118.207360317933</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4048.263060861982</v>
+        <v>4592.240585075188</v>
       </c>
       <c r="T23" t="n">
-        <v>3891.393352558789</v>
+        <v>4435.370876771995</v>
       </c>
       <c r="U23" t="n">
-        <v>3699.669636568246</v>
+        <v>4178.310385031505</v>
       </c>
       <c r="V23" t="n">
-        <v>3415.168857654675</v>
+        <v>3883.405838388572</v>
       </c>
       <c r="W23" t="n">
-        <v>3096.745332539791</v>
+        <v>3499.645537523741</v>
       </c>
       <c r="X23" t="n">
-        <v>2761.438710458691</v>
+        <v>3164.338915442641</v>
       </c>
       <c r="Y23" t="n">
-        <v>2425.838813156729</v>
+        <v>2763.402242390731</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>761.1949890928931</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>627.1999178418388</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>510.3027600612312</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>389.8099440535592</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>280.8500642360638</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>173.8599515504025</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>103.1127385861185</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>82.36414720635867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>82.36414720635867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>82.36414720635867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>82.36414720635867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>82.36414720635867</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N24" t="n">
-        <v>483.7863759758209</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O24" t="n">
-        <v>1187.743466521715</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>1749.449359010245</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2099.293823694229</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>1861.521469358176</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>1664.170658496394</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>1450.459131489428</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>1237.225963225757</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>901.4980217284798</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.3405672578622</v>
+        <v>725.220117742126</v>
       </c>
       <c r="C25" t="n">
-        <v>608.5839705695263</v>
+        <v>619.4635210537901</v>
       </c>
       <c r="D25" t="n">
-        <v>514.4261016423839</v>
+        <v>525.3056521266478</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8520622606509</v>
+        <v>429.7316127449149</v>
       </c>
       <c r="F25" t="n">
-        <v>319.5577121211897</v>
+        <v>330.4372626054538</v>
       </c>
       <c r="G25" t="n">
-        <v>217.6440967966807</v>
+        <v>228.5236472809448</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3734173520849</v>
+        <v>144.252967836349</v>
       </c>
       <c r="I25" t="n">
-        <v>82.36414720635867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>160.4832705240928</v>
+        <v>171.362821008357</v>
       </c>
       <c r="K25" t="n">
-        <v>379.0721721588544</v>
+        <v>389.9517226431186</v>
       </c>
       <c r="L25" t="n">
-        <v>703.0058463514385</v>
+        <v>713.8853968357025</v>
       </c>
       <c r="M25" t="n">
-        <v>1056.306476704455</v>
+        <v>1067.186027188719</v>
       </c>
       <c r="N25" t="n">
-        <v>1401.18183301123</v>
+        <v>1412.061383495493</v>
       </c>
       <c r="O25" t="n">
-        <v>1724.779017250228</v>
+        <v>1735.658567734491</v>
       </c>
       <c r="P25" t="n">
-        <v>1994.491031412364</v>
+        <v>2005.370581896627</v>
       </c>
       <c r="Q25" t="n">
-        <v>2124.055635127398</v>
+        <v>2134.935185611661</v>
       </c>
       <c r="R25" t="n">
-        <v>2104.119692552745</v>
+        <v>2114.999243037008</v>
       </c>
       <c r="S25" t="n">
-        <v>1983.064700182603</v>
+        <v>1993.944250666867</v>
       </c>
       <c r="T25" t="n">
-        <v>1808.852736909253</v>
+        <v>1819.732287393516</v>
       </c>
       <c r="U25" t="n">
-        <v>1591.391365205324</v>
+        <v>1602.270915689588</v>
       </c>
       <c r="V25" t="n">
-        <v>1382.842395894794</v>
+        <v>1393.721946379057</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.109507153616</v>
+        <v>1179.989057637879</v>
       </c>
       <c r="X25" t="n">
-        <v>996.1024207632466</v>
+        <v>1006.98197124751</v>
       </c>
       <c r="Y25" t="n">
-        <v>836.7034979019589</v>
+        <v>847.5830483862228</v>
       </c>
     </row>
     <row r="26">
@@ -6254,7 +6254,7 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U26" t="n">
         <v>4137.027566035664</v>
@@ -6263,10 +6263,10 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
         <v>2721.037282963096</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>126.7003606771693</v>
+        <v>369.3743743489454</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F28" t="n">
         <v>93.2436976906228</v>
@@ -6382,22 +6382,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362207</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.387532025356</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
         <v>1761.542230672484</v>
@@ -6406,28 +6406,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1800.798405294155</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V28" t="n">
-        <v>937.3616489751521</v>
+        <v>937.3616489751524</v>
       </c>
       <c r="W28" t="n">
-        <v>688.0888953187113</v>
+        <v>722.2159576848554</v>
       </c>
       <c r="X28" t="n">
-        <v>479.5419440130794</v>
+        <v>722.2159576848554</v>
       </c>
       <c r="Y28" t="n">
-        <v>284.6031562365289</v>
+        <v>527.2771699083049</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E29" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764623</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
@@ -6461,10 +6461,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6476,7 +6476,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6488,25 +6488,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159926</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.29114694147</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
         <v>4137.027566035665</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>126.7003606771695</v>
+        <v>390.7231194727167</v>
       </c>
       <c r="C31" t="n">
-        <v>126.7003606771695</v>
+        <v>360.3949117727997</v>
       </c>
       <c r="D31" t="n">
-        <v>126.7003606771695</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="E31" t="n">
-        <v>126.7003606771695</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F31" t="n">
-        <v>126.7003606771695</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G31" t="n">
-        <v>126.7003606771695</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6619,22 +6619,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362208</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253561</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749238</v>
+        <v>927.855540774924</v>
       </c>
       <c r="N31" t="n">
         <v>1237.898275478249</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P31" t="n">
         <v>1761.542230672484</v>
@@ -6643,28 +6643,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V31" t="n">
-        <v>937.3616489751522</v>
+        <v>992.8374564650676</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187114</v>
+        <v>743.5647028086267</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130796</v>
+        <v>743.5647028086267</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365291</v>
+        <v>548.6259150320763</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2080.954409242187</v>
+        <v>2353.181062726242</v>
       </c>
       <c r="C32" t="n">
-        <v>1736.166594305405</v>
+        <v>2008.39324778946</v>
       </c>
       <c r="D32" t="n">
-        <v>1397.039440148413</v>
+        <v>1603.92931788252</v>
       </c>
       <c r="E32" t="n">
-        <v>1048.036000415257</v>
+        <v>1189.589102399417</v>
       </c>
       <c r="F32" t="n">
-        <v>692.3423641188925</v>
+        <v>833.8954661030518</v>
       </c>
       <c r="G32" t="n">
-        <v>348.9508557616723</v>
+        <v>425.1671819958841</v>
       </c>
       <c r="H32" t="n">
-        <v>103.3791341393379</v>
+        <v>114.2586846236021</v>
       </c>
       <c r="I32" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>82.36414720635868</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>341.6111460542108</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.202545866449</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M32" t="n">
-        <v>1830.521136858203</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N32" t="n">
-        <v>2583.702153496821</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3227.333009913926</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
-        <v>3756.489707833077</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4077.650714628369</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4118.207360317934</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4048.263060861982</v>
+        <v>4592.240585075188</v>
       </c>
       <c r="T32" t="n">
-        <v>3891.393352558789</v>
+        <v>4435.370876771995</v>
       </c>
       <c r="U32" t="n">
-        <v>3699.669636568247</v>
+        <v>4178.310385031505</v>
       </c>
       <c r="V32" t="n">
-        <v>3415.168857654675</v>
+        <v>3828.472830367985</v>
       </c>
       <c r="W32" t="n">
-        <v>3096.745332539791</v>
+        <v>3444.712529503154</v>
       </c>
       <c r="X32" t="n">
-        <v>2761.438710458691</v>
+        <v>3044.069131672106</v>
       </c>
       <c r="Y32" t="n">
-        <v>2425.838813156729</v>
+        <v>2698.065466640784</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>761.1949890928931</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>627.1999178418388</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>510.3027600612312</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>389.8099440535592</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>280.8500642360638</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>173.8599515504025</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>103.1127385861185</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N33" t="n">
-        <v>483.7863759758209</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O33" t="n">
-        <v>1187.743466521715</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>1749.449359010245</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2099.293823694229</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>1861.521469358176</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>1664.170658496394</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>1450.459131489428</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>1237.225963225757</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>901.4980217284798</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.3405672578618</v>
+        <v>725.2201177421264</v>
       </c>
       <c r="C34" t="n">
-        <v>608.5839705695259</v>
+        <v>619.4635210537906</v>
       </c>
       <c r="D34" t="n">
-        <v>514.4261016423836</v>
+        <v>525.3056521266481</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8520622606507</v>
+        <v>429.7316127449151</v>
       </c>
       <c r="F34" t="n">
-        <v>319.5577121211895</v>
+        <v>330.437262605454</v>
       </c>
       <c r="G34" t="n">
-        <v>217.6440967966805</v>
+        <v>228.5236472809449</v>
       </c>
       <c r="H34" t="n">
-        <v>133.3734173520849</v>
+        <v>144.2529678363491</v>
       </c>
       <c r="I34" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>160.4832705240926</v>
+        <v>171.3628210083569</v>
       </c>
       <c r="K34" t="n">
-        <v>379.0721721588543</v>
+        <v>389.9517226431185</v>
       </c>
       <c r="L34" t="n">
-        <v>703.0058463514384</v>
+        <v>713.8853968357026</v>
       </c>
       <c r="M34" t="n">
-        <v>1056.306476704455</v>
+        <v>1067.18602718872</v>
       </c>
       <c r="N34" t="n">
-        <v>1401.181833011229</v>
+        <v>1412.061383495494</v>
       </c>
       <c r="O34" t="n">
-        <v>1724.779017250227</v>
+        <v>1735.658567734491</v>
       </c>
       <c r="P34" t="n">
-        <v>1994.491031412363</v>
+        <v>2005.370581896627</v>
       </c>
       <c r="Q34" t="n">
-        <v>2124.055635127398</v>
+        <v>2134.935185611661</v>
       </c>
       <c r="R34" t="n">
-        <v>2104.119692552745</v>
+        <v>2114.999243037009</v>
       </c>
       <c r="S34" t="n">
-        <v>1983.064700182602</v>
+        <v>1993.944250666867</v>
       </c>
       <c r="T34" t="n">
-        <v>1808.852736909252</v>
+        <v>1819.732287393517</v>
       </c>
       <c r="U34" t="n">
-        <v>1591.391365205324</v>
+        <v>1602.270915689588</v>
       </c>
       <c r="V34" t="n">
-        <v>1382.842395894793</v>
+        <v>1393.721946379058</v>
       </c>
       <c r="W34" t="n">
-        <v>1169.109507153615</v>
+        <v>1179.98905763788</v>
       </c>
       <c r="X34" t="n">
-        <v>996.1024207632463</v>
+        <v>1006.981971247511</v>
       </c>
       <c r="Y34" t="n">
-        <v>836.7034979019586</v>
+        <v>847.5830483862233</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1048.036000415258</v>
       </c>
       <c r="F35" t="n">
-        <v>692.3423641188929</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G35" t="n">
-        <v>348.9508557616728</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H35" t="n">
         <v>103.3791341393379</v>
@@ -6935,52 +6935,52 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J35" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K35" t="n">
-        <v>341.6111460542108</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.202545866449</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M35" t="n">
-        <v>1830.521136858203</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N35" t="n">
-        <v>2583.702153496821</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O35" t="n">
-        <v>3227.333009913926</v>
+        <v>3760.430983642867</v>
       </c>
       <c r="P35" t="n">
-        <v>3756.489707833077</v>
+        <v>3797.046353522642</v>
       </c>
       <c r="Q35" t="n">
-        <v>4077.650714628369</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="R35" t="n">
         <v>4118.207360317934</v>
       </c>
       <c r="S35" t="n">
-        <v>4048.263060861983</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T35" t="n">
-        <v>3891.39335255879</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U35" t="n">
         <v>3699.669636568247</v>
       </c>
       <c r="V35" t="n">
-        <v>3415.168857654676</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W35" t="n">
-        <v>3096.745332539792</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X35" t="n">
         <v>2761.438710458692</v>
       </c>
       <c r="Y35" t="n">
-        <v>2425.83881315673</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="36">
@@ -7026,7 +7026,7 @@
         <v>82.36414720635868</v>
       </c>
       <c r="N36" t="n">
-        <v>483.7863759758209</v>
+        <v>956.0222393179765</v>
       </c>
       <c r="O36" t="n">
         <v>1187.743466521715</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.3405672578617</v>
+        <v>714.3405672578618</v>
       </c>
       <c r="C37" t="n">
         <v>608.5839705695259</v>
       </c>
       <c r="D37" t="n">
-        <v>514.4261016423835</v>
+        <v>514.4261016423836</v>
       </c>
       <c r="E37" t="n">
         <v>418.8520622606507</v>
@@ -7087,25 +7087,25 @@
         <v>217.6440967966805</v>
       </c>
       <c r="H37" t="n">
-        <v>133.3734173520849</v>
+        <v>133.3734173520847</v>
       </c>
       <c r="I37" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J37" t="n">
-        <v>160.4832705240926</v>
+        <v>160.4832705240928</v>
       </c>
       <c r="K37" t="n">
-        <v>379.0721721588543</v>
+        <v>379.0721721588548</v>
       </c>
       <c r="L37" t="n">
-        <v>703.0058463514385</v>
+        <v>703.005846351439</v>
       </c>
       <c r="M37" t="n">
-        <v>1056.306476704455</v>
+        <v>1056.306476704456</v>
       </c>
       <c r="N37" t="n">
-        <v>1401.181833011229</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O37" t="n">
         <v>1724.779017250227</v>
@@ -7117,7 +7117,7 @@
         <v>2124.055635127397</v>
       </c>
       <c r="R37" t="n">
-        <v>2104.119692552744</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S37" t="n">
         <v>1983.064700182602</v>
@@ -7135,10 +7135,10 @@
         <v>1169.109507153615</v>
       </c>
       <c r="X37" t="n">
-        <v>996.1024207632462</v>
+        <v>996.1024207632463</v>
       </c>
       <c r="Y37" t="n">
-        <v>836.7034979019585</v>
+        <v>836.7034979019586</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E38" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F38" t="n">
-        <v>692.3423641188924</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G38" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H38" t="n">
         <v>103.3791341393379</v>
@@ -7172,22 +7172,22 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J38" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K38" t="n">
-        <v>341.6111460542108</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.202545866449</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M38" t="n">
-        <v>1830.521136858203</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N38" t="n">
-        <v>2583.702153496821</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O38" t="n">
-        <v>3227.333009913926</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="P38" t="n">
         <v>3756.489707833077</v>
@@ -7260,7 +7260,7 @@
         <v>82.36414720635868</v>
       </c>
       <c r="M39" t="n">
-        <v>483.7863759758209</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="N39" t="n">
         <v>483.7863759758209</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.3405672578618</v>
+        <v>714.3405672578622</v>
       </c>
       <c r="C40" t="n">
-        <v>608.5839705695259</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D40" t="n">
-        <v>514.4261016423836</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8520622606507</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F40" t="n">
-        <v>319.5577121211896</v>
+        <v>319.5577121211897</v>
       </c>
       <c r="G40" t="n">
-        <v>217.6440967966806</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H40" t="n">
         <v>133.3734173520849</v>
@@ -7330,52 +7330,52 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J40" t="n">
-        <v>160.483270524092</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K40" t="n">
-        <v>379.0721721588536</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L40" t="n">
-        <v>703.0058463514379</v>
+        <v>703.0058463514388</v>
       </c>
       <c r="M40" t="n">
-        <v>1056.306476704455</v>
+        <v>1056.306476704456</v>
       </c>
       <c r="N40" t="n">
-        <v>1401.181833011229</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O40" t="n">
-        <v>1724.779017250227</v>
+        <v>1724.779017250228</v>
       </c>
       <c r="P40" t="n">
-        <v>1994.491031412363</v>
+        <v>1994.491031412364</v>
       </c>
       <c r="Q40" t="n">
-        <v>2124.055635127397</v>
+        <v>2124.055635127398</v>
       </c>
       <c r="R40" t="n">
-        <v>2104.119692552744</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S40" t="n">
-        <v>1983.064700182602</v>
+        <v>1983.064700182603</v>
       </c>
       <c r="T40" t="n">
-        <v>1808.852736909252</v>
+        <v>1808.852736909253</v>
       </c>
       <c r="U40" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V40" t="n">
-        <v>1382.842395894793</v>
+        <v>1382.842395894794</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.109507153615</v>
+        <v>1169.109507153616</v>
       </c>
       <c r="X40" t="n">
-        <v>996.1024207632463</v>
+        <v>996.1024207632466</v>
       </c>
       <c r="Y40" t="n">
-        <v>836.7034979019586</v>
+        <v>836.7034979019589</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2080.954409242187</v>
+        <v>2080.954409242188</v>
       </c>
       <c r="C41" t="n">
-        <v>1736.166594305405</v>
+        <v>1736.166594305406</v>
       </c>
       <c r="D41" t="n">
-        <v>1397.039440148413</v>
+        <v>1397.039440148414</v>
       </c>
       <c r="E41" t="n">
         <v>1048.036000415258</v>
       </c>
       <c r="F41" t="n">
-        <v>692.3423641188926</v>
+        <v>692.342364118893</v>
       </c>
       <c r="G41" t="n">
-        <v>348.9508557616724</v>
+        <v>348.9508557616728</v>
       </c>
       <c r="H41" t="n">
         <v>103.3791341393379</v>
@@ -7409,22 +7409,22 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J41" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K41" t="n">
-        <v>341.6111460542108</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.202545866449</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M41" t="n">
-        <v>1830.521136858203</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N41" t="n">
-        <v>2583.702153496821</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O41" t="n">
-        <v>3227.333009913926</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="P41" t="n">
         <v>3756.489707833077</v>
@@ -7436,7 +7436,7 @@
         <v>4118.207360317934</v>
       </c>
       <c r="S41" t="n">
-        <v>4048.263060861982</v>
+        <v>4048.263060861983</v>
       </c>
       <c r="T41" t="n">
         <v>3891.393352558789</v>
@@ -7445,16 +7445,16 @@
         <v>3699.669636568247</v>
       </c>
       <c r="V41" t="n">
-        <v>3415.168857654675</v>
+        <v>3415.168857654676</v>
       </c>
       <c r="W41" t="n">
-        <v>3096.745332539791</v>
+        <v>3096.745332539792</v>
       </c>
       <c r="X41" t="n">
         <v>2761.438710458692</v>
       </c>
       <c r="Y41" t="n">
-        <v>2425.838813156729</v>
+        <v>2425.83881315673</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>714.3405672578619</v>
+        <v>714.3405672578622</v>
       </c>
       <c r="C43" t="n">
-        <v>608.5839705695261</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D43" t="n">
-        <v>514.4261016423837</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E43" t="n">
-        <v>418.8520622606508</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F43" t="n">
-        <v>319.5577121211896</v>
+        <v>319.5577121211897</v>
       </c>
       <c r="G43" t="n">
-        <v>217.6440967966806</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H43" t="n">
         <v>133.3734173520849</v>
@@ -7567,13 +7567,13 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J43" t="n">
-        <v>160.4832705240928</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K43" t="n">
-        <v>379.0721721588544</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L43" t="n">
-        <v>703.0058463514385</v>
+        <v>703.0058463514387</v>
       </c>
       <c r="M43" t="n">
         <v>1056.306476704456</v>
@@ -7582,7 +7582,7 @@
         <v>1401.18183301123</v>
       </c>
       <c r="O43" t="n">
-        <v>1724.779017250227</v>
+        <v>1724.779017250228</v>
       </c>
       <c r="P43" t="n">
         <v>1994.491031412364</v>
@@ -7609,10 +7609,10 @@
         <v>1169.109507153616</v>
       </c>
       <c r="X43" t="n">
-        <v>996.1024207632465</v>
+        <v>996.1024207632466</v>
       </c>
       <c r="Y43" t="n">
-        <v>836.7034979019587</v>
+        <v>836.7034979019589</v>
       </c>
     </row>
     <row r="44">
@@ -7646,13 +7646,13 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J44" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K44" t="n">
-        <v>341.6111460542108</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.202545866449</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M44" t="n">
         <v>1830.521136858203</v>
@@ -7688,7 +7688,7 @@
         <v>3096.745332539791</v>
       </c>
       <c r="X44" t="n">
-        <v>2761.438710458692</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y44" t="n">
         <v>2425.838813156729</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>714.3405672578622</v>
+        <v>714.3405672578621</v>
       </c>
       <c r="C46" t="n">
-        <v>608.5839705695263</v>
+        <v>608.5839705695262</v>
       </c>
       <c r="D46" t="n">
-        <v>514.4261016423839</v>
+        <v>514.4261016423837</v>
       </c>
       <c r="E46" t="n">
-        <v>418.8520622606509</v>
+        <v>418.8520622606508</v>
       </c>
       <c r="F46" t="n">
-        <v>319.5577121211897</v>
+        <v>319.5577121211896</v>
       </c>
       <c r="G46" t="n">
         <v>217.6440967966807</v>
@@ -7804,28 +7804,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J46" t="n">
-        <v>160.4832705240929</v>
+        <v>160.4832705240926</v>
       </c>
       <c r="K46" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588543</v>
       </c>
       <c r="L46" t="n">
-        <v>703.0058463514388</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M46" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N46" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O46" t="n">
-        <v>1724.779017250228</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P46" t="n">
-        <v>1994.491031412364</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q46" t="n">
-        <v>2124.055635127398</v>
+        <v>2124.055635127397</v>
       </c>
       <c r="R46" t="n">
         <v>2104.119692552745</v>
@@ -7834,22 +7834,22 @@
         <v>1983.064700182603</v>
       </c>
       <c r="T46" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U46" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V46" t="n">
-        <v>1382.842395894794</v>
+        <v>1382.842395894793</v>
       </c>
       <c r="W46" t="n">
-        <v>1169.109507153616</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X46" t="n">
-        <v>996.1024207632466</v>
+        <v>996.1024207632464</v>
       </c>
       <c r="Y46" t="n">
-        <v>836.7034979019589</v>
+        <v>836.7034979019588</v>
       </c>
     </row>
   </sheetData>
@@ -7985,22 +7985,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>110.0098835516324</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>109.7898708864971</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>106.8539123250013</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>104.1322507405728</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,22 +8064,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>175.2980289959033</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>73.89198660561297</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>71.07974292865305</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.51272643068802</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>75.82030703125471</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K4" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M4" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N4" t="n">
-        <v>67.85315311403241</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O4" t="n">
-        <v>72.89500599884562</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P4" t="n">
-        <v>72.59994956575409</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.17963358577487</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>276.5191717168074</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>324.2597450797643</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O5" t="n">
-        <v>324.5372299489281</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.381258722297</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8298,22 +8298,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>175.2980289959033</v>
       </c>
       <c r="N6" t="n">
-        <v>284.5408477168949</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>249.8934610650079</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>285.6070893259487</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>288.0400728279836</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8371,22 +8371,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K7" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L7" t="n">
-        <v>234.0329316057985</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M7" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N7" t="n">
-        <v>283.0600998315644</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O7" t="n">
-        <v>287.4223523961413</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P7" t="n">
         <v>263.5328115890082</v>
@@ -8459,16 +8459,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>102.3078893841658</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N8" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>483.342555376</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>483.8021430311011</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8538,16 +8538,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>434.4988566955759</v>
+        <v>170.9271386512359</v>
       </c>
       <c r="O9" t="n">
-        <v>447.9042587502169</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>444.4124147530206</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8690,7 +8690,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>351.002045075088</v>
+        <v>451.2784808658461</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8778,10 +8778,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507823</v>
       </c>
       <c r="O12" t="n">
-        <v>291.8133246603421</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>351.002045075088</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8942,7 +8942,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>189.9447123950868</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9003,31 +9003,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>461.5915225678816</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>511.2801306209798</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>351.002045075088</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>877.4504173780091</v>
+        <v>439.2440514223614</v>
       </c>
       <c r="N17" t="n">
         <v>853.701196452193</v>
@@ -9246,19 +9246,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>362.6551416563</v>
       </c>
       <c r="N18" t="n">
-        <v>458.6703921507826</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>351.002045075088</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9416,10 +9416,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>514.3497697640686</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9486,10 +9486,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>463.04128249545</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507823</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>351.0020450750871</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
         <v>815.2746908024792</v>
@@ -9723,10 +9723,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>463.04128249545</v>
       </c>
       <c r="N24" t="n">
-        <v>458.6703921507826</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>351.002045075088</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
         <v>815.2746908024792</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>351.002045075088</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10601,13 +10601,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>628.1510783507341</v>
+        <v>130.6345853816668</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10674,10 +10674,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>458.6703921507826</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>291.8133246603421</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>351.002045075088</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10835,10 +10835,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.321953824879</v>
+        <v>739.3408671483234</v>
       </c>
       <c r="P38" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10908,10 +10908,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>463.04128249545</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O39" t="n">
         <v>768.8192472281761</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>351.002045075088</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11072,10 +11072,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>739.3408671483234</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>351.002045075088</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780091</v>
+        <v>338.9676156316031</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>343.7594040884072</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>137.1598858751865</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>270.2785679976323</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>84.02309322346863</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>121.7808625794368</v>
+        <v>124.0876549083776</v>
       </c>
       <c r="F13" t="n">
-        <v>125.4639702295878</v>
+        <v>127.7707625585285</v>
       </c>
       <c r="G13" t="n">
-        <v>128.0570427627851</v>
+        <v>130.3638350917259</v>
       </c>
       <c r="H13" t="n">
-        <v>110.590536241671</v>
+        <v>112.8973285706118</v>
       </c>
       <c r="I13" t="n">
-        <v>77.66174103579023</v>
+        <v>79.96853336473097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>127.4849061345751</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>343.7594040884072</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.2992635249224</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>28.13919034789706</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>120.3788538293922</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.7808625794368</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.4639702295878</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>128.0570427627851</v>
+        <v>130.3638350917259</v>
       </c>
       <c r="H16" t="n">
-        <v>74.23477563574679</v>
+        <v>112.8973285706118</v>
       </c>
       <c r="I16" t="n">
-        <v>77.66174103579021</v>
+        <v>79.96853336473097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>149.3137983669027</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>29.28315378765097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.7463714469273</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>89.98003496471787</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>66.22637226443749</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>107.446541485832</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>22.4712202798484</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>26.2886454634743</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>106.7614006308816</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>128.4007565039811</v>
@@ -24610,7 +24610,7 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>33.78579174248239</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>109.8585713646448</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>129.8027652540257</v>
@@ -24850,10 +24850,10 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>85.49034255957864</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
         <v>85.6836437103791</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1056222.33026766</v>
+        <v>1062782.999371284</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1056222.33026766</v>
+        <v>1062782.999371284</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1140176.751227198</v>
+        <v>1133616.082123574</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1140176.751227198</v>
+        <v>1133616.082123574</v>
       </c>
     </row>
     <row r="9">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5636.805028434394</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>69307.49696633394</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49329.69823741136</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>220927.1681557333</v>
+        <v>187257.5370746438</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21730.05087321698</v>
+        <v>18333.83488471513</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>34670.98461973581</v>
       </c>
       <c r="J3" t="n">
-        <v>41852.09666231435</v>
+        <v>136618.4694505958</v>
       </c>
       <c r="K3" t="n">
-        <v>55212.47408757918</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>55650.86860860704</v>
+        <v>46481.40789760321</v>
       </c>
       <c r="M3" t="n">
-        <v>159340.8034302946</v>
+        <v>98888.83344085055</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5241.649851654478</v>
       </c>
       <c r="O3" t="n">
-        <v>1869.102507853381</v>
+        <v>23.66864470077417</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>311079.6779386663</v>
+        <v>155118.3712081971</v>
       </c>
       <c r="C4" t="n">
-        <v>241888.6776778801</v>
+        <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>190669.5697293315</v>
+        <v>155118.3712081971</v>
       </c>
       <c r="E4" t="n">
-        <v>38590.3619446751</v>
+        <v>36271.21582750503</v>
       </c>
       <c r="F4" t="n">
-        <v>38590.36194467511</v>
+        <v>36271.21582750503</v>
       </c>
       <c r="G4" t="n">
-        <v>66039.37442832867</v>
+        <v>59430.18888099457</v>
       </c>
       <c r="H4" t="n">
-        <v>66039.37442832867</v>
+        <v>59430.18888099452</v>
       </c>
       <c r="I4" t="n">
-        <v>66039.37442832868</v>
+        <v>42125.60018499198</v>
       </c>
       <c r="J4" t="n">
         <v>30548.15734701357</v>
@@ -26445,19 +26445,19 @@
         <v>30548.15734701357</v>
       </c>
       <c r="L4" t="n">
+        <v>42125.60018499198</v>
+      </c>
+      <c r="M4" t="n">
         <v>66039.37442832868</v>
       </c>
-      <c r="M4" t="n">
-        <v>66039.37442832871</v>
-      </c>
       <c r="N4" t="n">
-        <v>66039.37442832869</v>
+        <v>66039.37442832867</v>
       </c>
       <c r="O4" t="n">
         <v>66039.37442832867</v>
       </c>
       <c r="P4" t="n">
-        <v>66039.37442832867</v>
+        <v>66039.37442832868</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34650.26256189164</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>47693.52522284721</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>57348.88900881319</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>65751.09174477412</v>
+        <v>67096.91692432885</v>
       </c>
       <c r="F5" t="n">
-        <v>65751.09174477412</v>
+        <v>67096.91692432885</v>
       </c>
       <c r="G5" t="n">
-        <v>68034.62130334972</v>
+        <v>69023.55088048276</v>
       </c>
       <c r="H5" t="n">
-        <v>68034.62130334972</v>
+        <v>69023.55088048276</v>
       </c>
       <c r="I5" t="n">
-        <v>68034.6213033497</v>
+        <v>76303.07967139044</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26497,7 +26497,7 @@
         <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>68034.62130334972</v>
+        <v>76303.07967139044</v>
       </c>
       <c r="M5" t="n">
         <v>68034.62130334972</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351366.7455289923</v>
+        <v>-395442.9461798088</v>
       </c>
       <c r="C6" t="n">
-        <v>-358889.6998670612</v>
+        <v>-220487.4362866946</v>
       </c>
       <c r="D6" t="n">
-        <v>-297348.156975556</v>
+        <v>-220487.4362866946</v>
       </c>
       <c r="E6" t="n">
-        <v>-325268.6218451825</v>
+        <v>-290736.232329129</v>
       </c>
       <c r="F6" t="n">
-        <v>-104341.4536894492</v>
+        <v>-103478.6952544852</v>
       </c>
       <c r="G6" t="n">
-        <v>-155804.0466048954</v>
+        <v>-146796.9470306262</v>
       </c>
       <c r="H6" t="n">
-        <v>-134073.9957316784</v>
+        <v>-128463.112145911</v>
       </c>
       <c r="I6" t="n">
-        <v>-134073.9957316784</v>
+        <v>-153099.6644761182</v>
       </c>
       <c r="J6" t="n">
-        <v>-145745.4107861927</v>
+        <v>-240562.1131238756</v>
       </c>
       <c r="K6" t="n">
-        <v>-159105.7882114576</v>
+        <v>-103943.6436732798</v>
       </c>
       <c r="L6" t="n">
-        <v>-189724.8643402854</v>
+        <v>-164910.0877539856</v>
       </c>
       <c r="M6" t="n">
-        <v>-293414.799161973</v>
+        <v>-232962.8291725289</v>
       </c>
       <c r="N6" t="n">
-        <v>-134073.9957316784</v>
+        <v>-139315.6455833329</v>
       </c>
       <c r="O6" t="n">
-        <v>-135943.0982395318</v>
+        <v>-134097.6643763792</v>
       </c>
       <c r="P6" t="n">
         <v>-134073.9957316784</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="F2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="G2" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="H2" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="I2" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="J2" t="n">
         <v>29.498941726338</v>
@@ -26713,19 +26713,19 @@
         <v>29.498941726338</v>
       </c>
       <c r="L2" t="n">
+        <v>64.6834079924481</v>
+      </c>
+      <c r="M2" t="n">
         <v>64.68340799244812</v>
       </c>
-      <c r="M2" t="n">
-        <v>64.68340799244814</v>
-      </c>
       <c r="N2" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="O2" t="n">
         <v>64.68340799244811</v>
       </c>
       <c r="P2" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>231.3474543231449</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>1029.551840079484</v>
+        <v>1054.876756261333</v>
       </c>
       <c r="F4" t="n">
-        <v>1029.551840079484</v>
+        <v>1054.876756261333</v>
       </c>
       <c r="G4" t="n">
-        <v>1029.551840079484</v>
+        <v>1054.876756261333</v>
       </c>
       <c r="H4" t="n">
-        <v>1029.551840079484</v>
+        <v>1054.876756261333</v>
       </c>
       <c r="I4" t="n">
-        <v>1029.551840079483</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="J4" t="n">
         <v>1165.546221132785</v>
@@ -26817,7 +26817,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="L4" t="n">
-        <v>1029.551840079484</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="M4" t="n">
         <v>1029.551840079484</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>27.16256359152123</v>
+        <v>22.91729360589391</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.552062314568111</v>
       </c>
       <c r="J2" t="n">
-        <v>2.336378134816762</v>
+        <v>0.02958580587597481</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.34702985763134</v>
+        <v>58.10175987200401</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.552062314568097</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816727</v>
+        <v>0.02958580587596771</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>214.5273463972956</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>158.8053254270719</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>639.3990603292666</v>
+        <v>532.8131858913076</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>110.6694648714517</v>
       </c>
       <c r="J4" t="n">
-        <v>152.8144889791508</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>214.5273463972956</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.81094437377058</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292666</v>
+        <v>396.8188048380063</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>27.16256359152123</v>
+        <v>22.91729360589391</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.552062314568111</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816762</v>
+        <v>0.02958580587597481</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>214.5273463972956</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>158.8053254270719</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292666</v>
+        <v>532.8131858913076</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>395.7641588630082</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>329.5190711910348</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>205.8762154525531</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>117.8399694774557</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>102.467779921746</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>178.5571948273142</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>194.7543038110472</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>154.5672876528126</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>67.59988321550505</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.1500580534878</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>259.4588599203651</v>
+        <v>250.8510892223351</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>229.0856528974337</v>
+        <v>145.6877565117676</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>114.9917247937392</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>148.5752435330382</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6764265274667451</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>131.1996069534046</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>53.47518551766764</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27822,22 +27822,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>5.805797309919967</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>44.93151352306941</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,7 +27862,7 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>26.66732817563241</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>75.30587842731948</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>177.4118274268344</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -27919,7 +27919,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.774526571173908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,25 +27929,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>37.30143203435273</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28023,13 +28023,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>148.7595094506184</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.6935154888943</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="C11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="D11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="E11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="F11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="G11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="H11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="I11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="T11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="U11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="V11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="W11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="X11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="C13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="D13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="E13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="G13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="H13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="I13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="J13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="K13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="L13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="M13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="N13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="O13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="P13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="R13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="S13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="T13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="U13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="V13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="W13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="X13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="C14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="D14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="E14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="F14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="G14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="H14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="I14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="T14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="U14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="V14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="W14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="X14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="Y14" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="C16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="D16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="E16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="G16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="H16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="I16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="J16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="K16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="L16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="M16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="N16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="O16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="P16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="R16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="S16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="T16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="U16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="V16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="W16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="X16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.52084440092688</v>
+        <v>35.21405207198613</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="C17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="D17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="E17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="F17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="G17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="H17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="I17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="T17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="U17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="V17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="W17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="X17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="Y17" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="C19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="D19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="E19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="F19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="G19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="H19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="I19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="J19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="K19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="L19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="M19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="N19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="O19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="P19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="R19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="S19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="T19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="U19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="V19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="W19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="X19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="C20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="D20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="E20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="F20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="G20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.1313456778791</v>
       </c>
       <c r="H20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="I20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="T20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="U20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="V20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="W20" t="n">
-        <v>64.68340799244805</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="X20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="Y20" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="C22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="D22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="E22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="F22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="G22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="H22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="I22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="J22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="K22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="L22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="M22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="N22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="O22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="P22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="R22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="S22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="T22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="U22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="V22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="W22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="X22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.68340799244811</v>
+        <v>58.13134567788004</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="D23" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="H23" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="T23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="U23" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>64.68340799244811</v>
+        <v>54.38367794038101</v>
       </c>
       <c r="W23" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="Y23" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="C25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="D25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="E25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="F25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="G25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="H25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="I25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="J25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="K25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="L25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="M25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="N25" t="n">
-        <v>64.68340799244839</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="O25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="P25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="R25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="S25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="T25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="U25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="V25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="W25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="X25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244815</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="C32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="D32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="G32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="T32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="U32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>64.68340799244812</v>
+        <v>54.3836779403818</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="C34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="D34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="E34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="F34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="G34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="H34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="I34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="J34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="K34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="L34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="M34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="N34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="O34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="P34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="R34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="S34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="T34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="U34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="V34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="W34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="X34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924481</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y35" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244817</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="L37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="O37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="R37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="S37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="W38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="X38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J40" t="n">
-        <v>64.68340799244726</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="K40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="L40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244822</v>
       </c>
       <c r="M40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="N40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="O40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="P40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="R40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="S40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="W40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="X40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>64.68340799244805</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C41" t="n">
         <v>64.68340799244811</v>
@@ -30651,7 +30651,7 @@
         <v>64.68340799244811</v>
       </c>
       <c r="N43" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244817</v>
       </c>
       <c r="O43" t="n">
         <v>64.68340799244811</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="L46" t="n">
-        <v>64.68340799244822</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="O46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="R46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="S46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
   </sheetData>
@@ -34705,22 +34705,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>16.14050760561297</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>16.8201079258493</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>16.8201079258493</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34784,22 +34784,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>16.14050760561297</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.8201079258493</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>16.8201079258493</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N4" t="n">
-        <v>16.14050760561297</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O4" t="n">
-        <v>16.8201079258493</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P4" t="n">
-        <v>16.8201079258493</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.8201079258493</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.0337736539626</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>231.3474543231449</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O5" t="n">
-        <v>231.3474543231449</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>231.3474543231449</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35018,22 +35018,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="N6" t="n">
-        <v>231.3474543231449</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>192.1419820650079</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>231.3474543231449</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>231.3474543231449</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35091,22 +35091,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L7" t="n">
-        <v>179.404637711897</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N7" t="n">
-        <v>231.3474543231449</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O7" t="n">
-        <v>231.3474543231449</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P7" t="n">
         <v>207.7529699491034</v>
@@ -35179,16 +35179,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>9.017664927120396</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35258,16 +35258,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>381.3054633018259</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="O9" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>261.8656554018709</v>
+        <v>362.142091192629</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570323</v>
       </c>
       <c r="O12" t="n">
-        <v>234.061845660342</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.7456417799274</v>
+        <v>49.43884945098666</v>
       </c>
       <c r="K13" t="n">
-        <v>193.6343067466218</v>
+        <v>191.3275144176811</v>
       </c>
       <c r="L13" t="n">
-        <v>300.0431679161396</v>
+        <v>297.7363755871988</v>
       </c>
       <c r="M13" t="n">
-        <v>329.7067599973847</v>
+        <v>327.399967668444</v>
       </c>
       <c r="N13" t="n">
-        <v>321.1963821728968</v>
+        <v>318.8895898439561</v>
       </c>
       <c r="O13" t="n">
-        <v>299.7032790741331</v>
+        <v>297.3964867451924</v>
       </c>
       <c r="P13" t="n">
-        <v>245.2738143500303</v>
+        <v>242.9670220210895</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.7107734943722</v>
+        <v>101.4039811654314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>261.8656554018709</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35662,7 +35662,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>96.29534911420265</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>405.4769987570326</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>453.5286516209798</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>51.74564177992741</v>
+        <v>49.43884945098666</v>
       </c>
       <c r="K16" t="n">
-        <v>193.6343067466218</v>
+        <v>191.3275144176811</v>
       </c>
       <c r="L16" t="n">
-        <v>300.0431679161396</v>
+        <v>297.7363755871988</v>
       </c>
       <c r="M16" t="n">
-        <v>329.7067599973847</v>
+        <v>327.399967668444</v>
       </c>
       <c r="N16" t="n">
-        <v>321.1963821728968</v>
+        <v>318.8895898439561</v>
       </c>
       <c r="O16" t="n">
-        <v>299.7032790741331</v>
+        <v>297.3964867451924</v>
       </c>
       <c r="P16" t="n">
-        <v>245.2738143500303</v>
+        <v>242.9670220210895</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.7107734943722</v>
+        <v>101.4039811654314</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>261.8656554018709</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>784.1601929209636</v>
+        <v>345.953826965316</v>
       </c>
       <c r="N17" t="n">
         <v>760.7889056955737</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>305.0908579178826</v>
       </c>
       <c r="N18" t="n">
-        <v>405.4769987570326</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.90820537144864</v>
+        <v>72.35614305688057</v>
       </c>
       <c r="K19" t="n">
-        <v>220.796870338143</v>
+        <v>214.244808023575</v>
       </c>
       <c r="L19" t="n">
-        <v>327.2057315076608</v>
+        <v>320.6536691930928</v>
       </c>
       <c r="M19" t="n">
-        <v>356.869323588906</v>
+        <v>350.3172612743379</v>
       </c>
       <c r="N19" t="n">
-        <v>348.3589457644181</v>
+        <v>341.80688344985</v>
       </c>
       <c r="O19" t="n">
-        <v>326.8658426656543</v>
+        <v>320.3137803510863</v>
       </c>
       <c r="P19" t="n">
-        <v>272.4363779415515</v>
+        <v>265.8843156269834</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.8733370858934</v>
+        <v>124.3212747713253</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>261.8656554018709</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36136,10 +36136,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>420.7004064831845</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36206,10 +36206,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>405.4769987570326</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>405.4769987570323</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.90820537144864</v>
+        <v>72.35614305688057</v>
       </c>
       <c r="K22" t="n">
-        <v>220.796870338143</v>
+        <v>214.244808023575</v>
       </c>
       <c r="L22" t="n">
-        <v>327.2057315076608</v>
+        <v>320.6536691930928</v>
       </c>
       <c r="M22" t="n">
-        <v>356.869323588906</v>
+        <v>350.3172612743379</v>
       </c>
       <c r="N22" t="n">
-        <v>348.3589457644181</v>
+        <v>341.80688344985</v>
       </c>
       <c r="O22" t="n">
-        <v>326.8658426656543</v>
+        <v>320.3137803510863</v>
       </c>
       <c r="P22" t="n">
-        <v>272.4363779415515</v>
+        <v>265.8843156269834</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.8733370858934</v>
+        <v>124.3212747713253</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>261.86565540187</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L23" t="n">
         <v>719.7892927396343</v>
@@ -36443,10 +36443,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="N24" t="n">
-        <v>405.4769987570326</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.90820537144864</v>
+        <v>78.90820537144867</v>
       </c>
       <c r="K25" t="n">
-        <v>220.796870338143</v>
+        <v>220.7968703381431</v>
       </c>
       <c r="L25" t="n">
-        <v>327.2057315076608</v>
+        <v>327.2057315076609</v>
       </c>
       <c r="M25" t="n">
         <v>356.869323588906</v>
       </c>
       <c r="N25" t="n">
-        <v>348.3589457644184</v>
+        <v>348.3589457644181</v>
       </c>
       <c r="O25" t="n">
-        <v>326.8658426656543</v>
+        <v>326.8658426656544</v>
       </c>
       <c r="P25" t="n">
         <v>272.4363779415515</v>
@@ -36838,7 +36838,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M29" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N29" t="n">
         <v>760.7889056955737</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>261.8656554018709</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L32" t="n">
         <v>719.7892927396343</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.90820537144864</v>
+        <v>78.90820537144862</v>
       </c>
       <c r="K34" t="n">
         <v>220.796870338143</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>261.8656554018709</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37321,13 +37321,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
-        <v>534.50171506985</v>
+        <v>36.98522210078261</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,10 +37394,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>405.4769987570326</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>234.061845660342</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.90820537144867</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K37" t="n">
-        <v>220.7968703381431</v>
+        <v>220.796870338143</v>
       </c>
       <c r="L37" t="n">
-        <v>327.2057315076609</v>
+        <v>327.2057315076608</v>
       </c>
       <c r="M37" t="n">
         <v>356.869323588906</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>261.8656554018709</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37555,10 +37555,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.1321781990958</v>
+        <v>646.1510915225402</v>
       </c>
       <c r="P38" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37628,10 +37628,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>405.4769987570326</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>711.0677682281761</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.90820537144778</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K40" t="n">
-        <v>220.7968703381431</v>
+        <v>220.796870338143</v>
       </c>
       <c r="L40" t="n">
         <v>327.2057315076609</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>261.8656554018709</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37792,10 +37792,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>646.1510915225402</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>261.8656554018709</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>784.1601929209636</v>
+        <v>245.6773911745577</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38178,7 +38178,7 @@
         <v>220.796870338143</v>
       </c>
       <c r="L46" t="n">
-        <v>327.2057315076609</v>
+        <v>327.2057315076608</v>
       </c>
       <c r="M46" t="n">
         <v>356.869323588906</v>
